--- a/TITAGARH.xlsx
+++ b/TITAGARH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e609fdbd93d202da/Desktop/Models/India Equity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1936" documentId="8_{38F2AB16-A9C9-49E7-A20A-4B09C2F4BEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{555DD081-FDFA-4D4C-92C8-6F79AC40A111}"/>
+  <xr:revisionPtr revIDLastSave="1948" documentId="8_{38F2AB16-A9C9-49E7-A20A-4B09C2F4BEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340858B8-3407-488A-8BE5-2C1167A7A69C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{9A104C27-410A-4274-ADF4-C9E210258DD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9A104C27-410A-4274-ADF4-C9E210258DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -624,17 +624,9 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -781,10 +773,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1087,16 +1075,16 @@
   <dimension ref="B4:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.06640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1104,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="2">
-        <v>1496.15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -1119,16 +1107,16 @@
         <v>13.4674</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="4">
         <f>J4*J5</f>
-        <v>20149.250510000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+        <v>19702.806199999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1125,7 @@
         <v>606.99710000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>8</v>
       </c>
@@ -1146,19 +1134,19 @@
         <v>165.71520000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="3">
         <f>J6+J8-J7</f>
-        <v>19707.96861</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+        <v>19261.524299999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J10" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1166,67 +1154,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I29" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>149</v>
       </c>
@@ -1241,26 +1229,26 @@
   <dimension ref="A1:GC121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV57" sqref="AV57"/>
+      <selection pane="bottomRight" activeCell="AP57" sqref="AP57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="9.06640625" style="3"/>
-    <col min="26" max="26" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.19921875" style="3" customWidth="1"/>
-    <col min="28" max="34" width="10.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="47" width="9.06640625" style="3"/>
-    <col min="48" max="48" width="10.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="9" style="3"/>
+    <col min="26" max="34" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="47" width="9" style="3"/>
+    <col min="48" max="48" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="8">
         <v>44012</v>
       </c>
@@ -1309,7 +1297,7 @@
       <c r="R1" s="8">
         <v>45382</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1">
         <v>1</v>
       </c>
       <c r="T1">
@@ -1324,7 +1312,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Z1" s="19">
+      <c r="Z1" s="8">
         <v>42460</v>
       </c>
       <c r="AA1" s="8">
@@ -1395,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1514,7 +1502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1555,7 +1543,7 @@
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
     </row>
-    <row r="4" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1596,7 +1584,7 @@
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
     </row>
-    <row r="5" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>151</v>
       </c>
@@ -1640,7 +1628,7 @@
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
     </row>
-    <row r="6" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>150</v>
       </c>
@@ -1694,7 +1682,7 @@
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
     </row>
-    <row r="7" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>152</v>
       </c>
@@ -1727,23 +1715,23 @@
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
       <c r="AH7" s="5"/>
-      <c r="AI7" s="21">
+      <c r="AI7" s="15">
         <f>AI6*120</f>
         <v>240</v>
       </c>
-      <c r="AJ7" s="21">
+      <c r="AJ7" s="15">
         <f t="shared" ref="AJ7:AM7" si="2">AJ6*120</f>
         <v>1440</v>
       </c>
-      <c r="AK7" s="21">
+      <c r="AK7" s="15">
         <f t="shared" si="2"/>
         <v>2160</v>
       </c>
-      <c r="AL7" s="21">
+      <c r="AL7" s="15">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AM7" s="15">
         <f t="shared" si="2"/>
         <v>2760</v>
       </c>
@@ -1753,7 +1741,7 @@
       <c r="AQ7" s="5"/>
       <c r="AR7" s="5"/>
     </row>
-    <row r="8" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>153</v>
       </c>
@@ -1786,23 +1774,23 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AI8" s="21">
+      <c r="AI8" s="15">
         <f>AI7*0.51</f>
         <v>122.4</v>
       </c>
-      <c r="AJ8" s="21">
+      <c r="AJ8" s="15">
         <f t="shared" ref="AJ8:AM8" si="3">AJ7*0.51</f>
         <v>734.4</v>
       </c>
-      <c r="AK8" s="21">
+      <c r="AK8" s="15">
         <f t="shared" si="3"/>
         <v>1101.5999999999999</v>
       </c>
-      <c r="AL8" s="21">
+      <c r="AL8" s="15">
         <f t="shared" si="3"/>
         <v>1530</v>
       </c>
-      <c r="AM8" s="21">
+      <c r="AM8" s="15">
         <f t="shared" si="3"/>
         <v>1407.6000000000001</v>
       </c>
@@ -1812,7 +1800,7 @@
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
     </row>
-    <row r="9" spans="2:46" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>154</v>
       </c>
@@ -1845,46 +1833,46 @@
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
       <c r="AH9" s="5"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21">
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15">
         <f>AI7*0.041</f>
         <v>9.84</v>
       </c>
-      <c r="AK9" s="21">
+      <c r="AK9" s="15">
         <f>SUM(AI7:AJ7)*0.041</f>
         <v>68.88000000000001</v>
       </c>
-      <c r="AL9" s="21">
+      <c r="AL9" s="15">
         <f>SUM(AI7:AK7)*0.041</f>
         <v>157.44</v>
       </c>
-      <c r="AM9" s="21">
+      <c r="AM9" s="15">
         <f>SUM(AI7:AL7)*0.041</f>
         <v>280.44</v>
       </c>
-      <c r="AN9" s="21">
+      <c r="AN9" s="15">
         <f>SUM(AI7:AM7)*0.041</f>
         <v>393.6</v>
       </c>
-      <c r="AO9" s="21">
+      <c r="AO9" s="15">
         <f>AN9</f>
         <v>393.6</v>
       </c>
-      <c r="AP9" s="21">
+      <c r="AP9" s="15">
         <f t="shared" ref="AP9:AR9" si="4">AO9</f>
         <v>393.6</v>
       </c>
-      <c r="AQ9" s="21">
+      <c r="AQ9" s="15">
         <f t="shared" si="4"/>
         <v>393.6</v>
       </c>
-      <c r="AR9" s="21">
+      <c r="AR9" s="15">
         <f t="shared" si="4"/>
         <v>393.6</v>
       </c>
-      <c r="AT9" s="21"/>
-    </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.45">
+      <c r="AT9" s="15"/>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>155</v>
       </c>
@@ -1929,7 +1917,7 @@
         <v>200.73600000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>156</v>
       </c>
@@ -1974,7 +1962,7 @@
         <v>200.73600000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>157</v>
       </c>
@@ -1991,7 +1979,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>158</v>
       </c>
@@ -2029,7 +2017,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>159</v>
       </c>
@@ -2070,7 +2058,7 @@
         <v>654.54545454545462</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>160</v>
       </c>
@@ -2111,12 +2099,12 @@
         <v>320.72727272727275</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>164</v>
       </c>
@@ -2136,7 +2124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>165</v>
       </c>
@@ -2161,7 +2149,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>166</v>
       </c>
@@ -2182,7 +2170,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>167</v>
       </c>
@@ -2207,10 +2195,10 @@
         <v>1718.19</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>111</v>
       </c>
@@ -2332,7 +2320,7 @@
         <v>4090.2971050905617</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>112</v>
       </c>
@@ -2454,7 +2442,7 @@
         <v>5150.4239001600008</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>115</v>
       </c>
@@ -2511,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>113</v>
       </c>
@@ -2576,27 +2564,27 @@
         <v>0.25</v>
       </c>
       <c r="AF29" s="12">
-        <f>AF25/AE25-1</f>
+        <f t="shared" ref="AF29:AI30" si="17">AF25/AE25-1</f>
         <v>0.25231187095927887</v>
       </c>
       <c r="AG29" s="12">
-        <f>AG25/AF25-1</f>
+        <f t="shared" si="17"/>
         <v>0.80777858012395543</v>
       </c>
       <c r="AH29" s="12">
-        <f>AH25/AG25-1</f>
+        <f t="shared" si="17"/>
         <v>0.5567788335503514</v>
       </c>
       <c r="AI29" s="12">
-        <f>AI25/AH25-1</f>
+        <f t="shared" si="17"/>
         <v>-6.3663288636910287E-2</v>
       </c>
       <c r="AJ29" s="12">
-        <f t="shared" ref="AJ29:AK29" si="17">AJ25/AI25-1</f>
+        <f t="shared" ref="AJ29:AK29" si="18">AJ25/AI25-1</f>
         <v>0</v>
       </c>
       <c r="AK29" s="12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AL29" s="12">
@@ -2621,50 +2609,50 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>114</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12">
-        <f t="shared" ref="I30" si="18">I26/E26-1</f>
+        <f t="shared" ref="I30" si="19">I26/E26-1</f>
         <v>7.010663198959687</v>
       </c>
       <c r="J30" s="12">
-        <f t="shared" ref="J30" si="19">J26/F26-1</f>
+        <f t="shared" ref="J30" si="20">J26/F26-1</f>
         <v>0.82967799113737084</v>
       </c>
       <c r="K30" s="12">
-        <f t="shared" ref="K30" si="20">K26/G26-1</f>
+        <f t="shared" ref="K30" si="21">K26/G26-1</f>
         <v>3.6913018760659462</v>
       </c>
       <c r="L30" s="12">
-        <f t="shared" ref="L30" si="21">L26/H26-1</f>
+        <f t="shared" ref="L30" si="22">L26/H26-1</f>
         <v>0.61980472764645422</v>
       </c>
       <c r="M30" s="12">
-        <f t="shared" ref="M30" si="22">M26/I26-1</f>
+        <f t="shared" ref="M30" si="23">M26/I26-1</f>
         <v>1.5140482451868444</v>
       </c>
       <c r="N30" s="12">
-        <f t="shared" ref="N30" si="23">N26/J26-1</f>
+        <f t="shared" ref="N30" si="24">N26/J26-1</f>
         <v>1.6820936923787349</v>
       </c>
       <c r="O30" s="12">
-        <f t="shared" ref="O30" si="24">O26/K26-1</f>
+        <f t="shared" ref="O30" si="25">O26/K26-1</f>
         <v>0.99562893843916656</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" ref="P30" si="25">P26/L26-1</f>
+        <f t="shared" ref="P30" si="26">P26/L26-1</f>
         <v>6.7457346437658217E-2</v>
       </c>
       <c r="Q30" s="12">
-        <f t="shared" ref="Q30" si="26">Q26/M26-1</f>
+        <f t="shared" ref="Q30" si="27">Q26/M26-1</f>
         <v>-0.3483712833440088</v>
       </c>
       <c r="R30" s="12">
-        <f t="shared" ref="R30" si="27">R26/N26-1</f>
+        <f t="shared" ref="R30" si="28">R26/N26-1</f>
         <v>-0.78606249668902872</v>
       </c>
       <c r="S30" s="12">
@@ -2680,27 +2668,27 @@
         <v>-0.5</v>
       </c>
       <c r="AF30" s="12">
-        <f>AF26/AE26-1</f>
+        <f t="shared" si="17"/>
         <v>4.271222917669717</v>
       </c>
       <c r="AG30" s="12">
-        <f>AG26/AF26-1</f>
+        <f t="shared" si="17"/>
         <v>1.4185898671304207</v>
       </c>
       <c r="AH30" s="12">
-        <f>AH26/AG26-1</f>
+        <f t="shared" si="17"/>
         <v>-0.17723886233587316</v>
       </c>
       <c r="AI30" s="12">
-        <f>AI26/AH26-1</f>
+        <f t="shared" si="17"/>
         <v>4.1637908559132519</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" ref="AJ30:AK30" si="28">AJ26/AI26-1</f>
+        <f t="shared" ref="AJ30:AK30" si="29">AJ26/AI26-1</f>
         <v>0</v>
       </c>
       <c r="AK30" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL30" s="12">
@@ -2725,37 +2713,37 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="9">
-        <f>SUM(C25:C27)</f>
+        <f t="shared" ref="C32:I32" si="30">SUM(C25:C27)</f>
         <v>138.19</v>
       </c>
       <c r="D32" s="9">
-        <f>SUM(D25:D27)</f>
+        <f t="shared" si="30"/>
         <v>291.1508</v>
       </c>
       <c r="E32" s="9">
-        <f>SUM(E25:E27)</f>
+        <f t="shared" si="30"/>
         <v>327.02</v>
       </c>
       <c r="F32" s="9">
-        <f>SUM(F25:F27)</f>
+        <f t="shared" si="30"/>
         <v>269.36</v>
       </c>
       <c r="G32" s="9">
-        <f>SUM(G25:G27)</f>
+        <f t="shared" si="30"/>
         <v>338.21319999999997</v>
       </c>
       <c r="H32" s="9">
-        <f>SUM(H25:H27)</f>
+        <f t="shared" si="30"/>
         <v>333.02000000000004</v>
       </c>
       <c r="I32" s="9">
-        <f>SUM(I25:I27)</f>
+        <f t="shared" si="30"/>
         <v>385.69709999999998</v>
       </c>
       <c r="J32" s="9">
@@ -2794,19 +2782,19 @@
         <v>1052.4111</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" ref="S32:V32" si="29">S25+S26</f>
+        <f t="shared" ref="S32:V32" si="31">S25+S26</f>
         <v>1014.9389</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1068.3713749999999</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1117.6601250000001</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1288.8603000000001</v>
       </c>
       <c r="Z32" s="3">
@@ -2846,39 +2834,39 @@
         <v>6349.7820363636365</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" ref="AJ32:AR32" si="30">AK25+AK26+AK22+AK16+AK11</f>
+        <f t="shared" ref="AK32:AR32" si="32">AK25+AK26+AK22+AK16+AK11</f>
         <v>6827.2742545454548</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7766.0216727272727</v>
       </c>
       <c r="AM32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>8212.0016727272723</v>
       </c>
       <c r="AN32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>7734.8267727272723</v>
       </c>
       <c r="AO32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>9167.1805527272736</v>
       </c>
       <c r="AP32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10075.576991127275</v>
       </c>
       <c r="AQ32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>10746.678278679276</v>
       </c>
       <c r="AR32" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>11480.374277977835</v>
       </c>
     </row>
-    <row r="33" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="s">
         <v>19</v>
@@ -2979,39 +2967,39 @@
         <v>8.3215541325000011</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" ref="AK33:AR33" si="31">AJ61*$AV$56</f>
+        <f t="shared" ref="AK33:AR33" si="33">AJ61*$AV$56</f>
         <v>15.152591479605833</v>
       </c>
       <c r="AL33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>22.88838147228844</v>
       </c>
       <c r="AM33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>31.83593266958167</v>
       </c>
       <c r="AN33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>41.493599219615533</v>
       </c>
       <c r="AO33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>50.151739298625309</v>
       </c>
       <c r="AP33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>61.612841371103045</v>
       </c>
       <c r="AQ33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>74.922954482758385</v>
       </c>
       <c r="AR33" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>88.812356222382789</v>
       </c>
     </row>
-    <row r="34" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="6" t="s">
         <v>20</v>
@@ -3025,55 +3013,55 @@
         <v>293.10079999999999</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" ref="E34:G34" si="32">E32+E33</f>
+        <f t="shared" ref="E34:G34" si="34">E32+E33</f>
         <v>331.60999999999996</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>272.58000000000004</v>
       </c>
       <c r="G34" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>344.73319999999995</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" ref="H34:I34" si="33">H32+H33</f>
+        <f t="shared" ref="H34:I34" si="35">H32+H33</f>
         <v>341.05</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>387.2971</v>
       </c>
       <c r="J34" s="9">
-        <f t="shared" ref="J34:L34" si="34">J32+J33</f>
+        <f t="shared" ref="J34:L34" si="36">J32+J33</f>
         <v>424.52459999999996</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>436.88</v>
       </c>
       <c r="L34" s="9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>622.42450000000008</v>
       </c>
       <c r="M34" s="9">
-        <f t="shared" ref="M34:O34" si="35">M32+M33</f>
+        <f t="shared" ref="M34:O34" si="37">M32+M33</f>
         <v>776.84280000000012</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>982.52650000000006</v>
       </c>
       <c r="O34" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>920.43869999999993</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" ref="P34:Q34" si="36">P32+P33</f>
+        <f t="shared" ref="P34:Q34" si="38">P32+P33</f>
         <v>942.22169999999994</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>969.15239999999994</v>
       </c>
       <c r="R34" s="9">
@@ -3081,19 +3069,19 @@
         <v>1067.1559999999999</v>
       </c>
       <c r="S34" s="9">
-        <f t="shared" ref="S34:V34" si="37">S32+S33</f>
+        <f t="shared" ref="S34:V34" si="39">S32+S33</f>
         <v>1014.9389</v>
       </c>
       <c r="T34" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1068.3713749999999</v>
       </c>
       <c r="U34" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1117.6601250000001</v>
       </c>
       <c r="V34" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1288.8603000000001</v>
       </c>
       <c r="Z34" s="9">
@@ -3105,11 +3093,11 @@
         <v>1768.19</v>
       </c>
       <c r="AB34" s="9">
-        <f t="shared" ref="AB34:AC34" si="38">AB32+AB33</f>
+        <f t="shared" ref="AB34:AC34" si="40">AB32+AB33</f>
         <v>1301.3</v>
       </c>
       <c r="AC34" s="9">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1764.1299999999999</v>
       </c>
       <c r="AD34" s="9">
@@ -3121,59 +3109,59 @@
         <v>1545.48</v>
       </c>
       <c r="AF34" s="9">
-        <f t="shared" ref="AF34:AH34" si="39">AF32+AF33</f>
+        <f t="shared" ref="AF34:AH34" si="41">AF32+AF33</f>
         <v>1485.22</v>
       </c>
       <c r="AG34" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2822.1704</v>
       </c>
       <c r="AH34" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3898.9688000000001</v>
       </c>
       <c r="AI34" s="9">
-        <f t="shared" ref="AI34" si="40">AI32+AI33</f>
+        <f t="shared" ref="AI34" si="42">AI32+AI33</f>
         <v>5572.4</v>
       </c>
       <c r="AJ34" s="9">
-        <f t="shared" ref="AJ34" si="41">AJ32+AJ33</f>
+        <f t="shared" ref="AJ34" si="43">AJ32+AJ33</f>
         <v>6358.1035904961363</v>
       </c>
       <c r="AK34" s="9">
-        <f t="shared" ref="AK34" si="42">AK32+AK33</f>
+        <f t="shared" ref="AK34" si="44">AK32+AK33</f>
         <v>6842.4268460250605</v>
       </c>
       <c r="AL34" s="9">
-        <f t="shared" ref="AL34" si="43">AL32+AL33</f>
+        <f t="shared" ref="AL34" si="45">AL32+AL33</f>
         <v>7788.9100541995613</v>
       </c>
       <c r="AM34" s="9">
-        <f t="shared" ref="AM34" si="44">AM32+AM33</f>
+        <f t="shared" ref="AM34" si="46">AM32+AM33</f>
         <v>8243.8376053968532</v>
       </c>
       <c r="AN34" s="9">
-        <f t="shared" ref="AN34" si="45">AN32+AN33</f>
+        <f t="shared" ref="AN34" si="47">AN32+AN33</f>
         <v>7776.3203719468875</v>
       </c>
       <c r="AO34" s="9">
-        <f t="shared" ref="AO34" si="46">AO32+AO33</f>
+        <f t="shared" ref="AO34" si="48">AO32+AO33</f>
         <v>9217.3322920258997</v>
       </c>
       <c r="AP34" s="9">
-        <f t="shared" ref="AP34" si="47">AP32+AP33</f>
+        <f t="shared" ref="AP34" si="49">AP32+AP33</f>
         <v>10137.189832498378</v>
       </c>
       <c r="AQ34" s="9">
-        <f t="shared" ref="AQ34" si="48">AQ32+AQ33</f>
+        <f t="shared" ref="AQ34" si="50">AQ32+AQ33</f>
         <v>10821.601233162033</v>
       </c>
       <c r="AR34" s="9">
-        <f t="shared" ref="AR34" si="49">AR32+AR33</f>
+        <f t="shared" ref="AR34" si="51">AR32+AR33</f>
         <v>11569.186634200218</v>
       </c>
     </row>
-    <row r="35" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -3226,16 +3214,16 @@
       <c r="R35" s="3">
         <v>806.68290000000002</v>
       </c>
-      <c r="Z35" s="13">
+      <c r="Z35" s="3">
         <v>558.67999999999995</v>
       </c>
-      <c r="AA35" s="13">
+      <c r="AA35" s="3">
         <v>915.19</v>
       </c>
-      <c r="AB35" s="13">
+      <c r="AB35" s="3">
         <v>692.37</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AC35" s="3">
         <v>1098.5</v>
       </c>
       <c r="AD35" s="3">
@@ -3255,7 +3243,7 @@
         <v>2951.6719999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="6" t="s">
         <v>22</v>
@@ -3269,55 +3257,55 @@
         <v>102.0008</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" ref="E36:G36" si="50">E34-E35</f>
+        <f t="shared" ref="E36:G36" si="52">E34-E35</f>
         <v>92.349999999999966</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>86.450000000000045</v>
       </c>
       <c r="G36" s="9">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>109.40319999999994</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" ref="H36:I36" si="51">H34-H35</f>
+        <f t="shared" ref="H36:I36" si="53">H34-H35</f>
         <v>112.18</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>103.07709999999997</v>
       </c>
       <c r="J36" s="9">
-        <f t="shared" ref="J36:L36" si="52">J34-J35</f>
+        <f t="shared" ref="J36:L36" si="54">J34-J35</f>
         <v>119.14459999999997</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>76.980000000000018</v>
       </c>
       <c r="L36" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>155.61450000000008</v>
       </c>
       <c r="M36" s="9">
-        <f t="shared" ref="M36:O36" si="53">M34-M35</f>
+        <f t="shared" ref="M36:O36" si="55">M34-M35</f>
         <v>195.47280000000012</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>229.56550000000004</v>
       </c>
       <c r="O36" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>193.76969999999994</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" ref="P36:Q36" si="54">P34-P35</f>
+        <f t="shared" ref="P36:Q36" si="56">P34-P35</f>
         <v>262.59169999999995</v>
       </c>
       <c r="Q36" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>230.46229999999991</v>
       </c>
       <c r="R36" s="9">
@@ -3329,15 +3317,15 @@
         <v>243.58533599999998</v>
       </c>
       <c r="T36" s="9">
-        <f t="shared" ref="T36:V36" si="55">T34*T53</f>
+        <f t="shared" ref="T36:V36" si="57">T34*T53</f>
         <v>256.40913</v>
       </c>
       <c r="U36" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>268.23842999999999</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>309.32647200000002</v>
       </c>
       <c r="Z36" s="9">
@@ -3349,11 +3337,11 @@
         <v>853</v>
       </c>
       <c r="AB36" s="9">
-        <f t="shared" ref="AB36:AC36" si="56">AB34-AB35</f>
+        <f t="shared" ref="AB36:AC36" si="58">AB34-AB35</f>
         <v>608.92999999999995</v>
       </c>
       <c r="AC36" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>665.62999999999988</v>
       </c>
       <c r="AD36" s="9">
@@ -3365,15 +3353,15 @@
         <v>499.81999999999994</v>
       </c>
       <c r="AF36" s="9">
-        <f t="shared" ref="AF36:AH36" si="57">AF34-AF35</f>
+        <f t="shared" ref="AF36:AH36" si="59">AF34-AF35</f>
         <v>447.97</v>
       </c>
       <c r="AG36" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>656.87039999999979</v>
       </c>
       <c r="AH36" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>947.29680000000053</v>
       </c>
       <c r="AI36" s="9">
@@ -3381,43 +3369,43 @@
         <v>1077.5593679999999</v>
       </c>
       <c r="AJ36" s="9">
-        <f t="shared" ref="AJ36:AR36" si="58">AJ34*AJ53</f>
+        <f t="shared" ref="AJ36:AR36" si="60">AJ34*AJ53</f>
         <v>1525.9448617190726</v>
       </c>
       <c r="AK36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1710.6067115062651</v>
       </c>
       <c r="AL36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>1947.2275135498903</v>
       </c>
       <c r="AM36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>2143.3977774031819</v>
       </c>
       <c r="AN36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>2099.6065004256598</v>
       </c>
       <c r="AO36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>2580.8530417672523</v>
       </c>
       <c r="AP36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>2939.7850514245292</v>
       </c>
       <c r="AQ36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>3138.2643576169894</v>
       </c>
       <c r="AR36" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>3470.7559902600651</v>
       </c>
     </row>
-    <row r="37" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
         <v>23</v>
@@ -3458,7 +3446,7 @@
       <c r="N37" s="3">
         <v>-5.5841000000000003</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="3">
         <v>-14.68</v>
       </c>
       <c r="P37" s="3">
@@ -3486,19 +3474,19 @@
         <f>U37</f>
         <v>2.8710312499999997</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="3">
         <f>-3.62+15.62</f>
         <v>12</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="3">
         <f>164.6+25.59</f>
         <v>190.19</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB37" s="3">
         <f>64.84+3.25</f>
         <v>68.09</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AC37" s="3">
         <v>-43.5</v>
       </c>
       <c r="AD37" s="3">
@@ -3526,39 +3514,39 @@
         <v>-1.8910550000000002</v>
       </c>
       <c r="AK37" s="3">
-        <f t="shared" ref="AK37:AR37" si="59">AJ37</f>
+        <f t="shared" ref="AK37:AR37" si="61">AJ37</f>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AL37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AM37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AN37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AO37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AP37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AQ37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
       <c r="AR37" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>-1.8910550000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
         <v>24</v>
@@ -3616,27 +3604,27 @@
         <v>16.59</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" ref="T38:V38" si="60">P38*(1+T55)</f>
+        <f t="shared" ref="T38:V38" si="62">P38*(1+T55)</f>
         <v>18.133500000000002</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>15.81972</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>19.050150000000002</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="3">
         <v>168.15</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="3">
         <v>212.13</v>
       </c>
-      <c r="AB38" s="13">
+      <c r="AB38" s="3">
         <v>239.32</v>
       </c>
-      <c r="AC38" s="13">
+      <c r="AC38" s="3">
         <v>225.05</v>
       </c>
       <c r="AD38" s="3">
@@ -3656,7 +3644,7 @@
         <v>66.27940000000001</v>
       </c>
       <c r="AI38" s="3">
-        <f t="shared" ref="AI38:AI41" si="61">SUM(S38:V38)</f>
+        <f t="shared" ref="AI38:AI41" si="63">SUM(S38:V38)</f>
         <v>69.593370000000007</v>
       </c>
       <c r="AJ38" s="3">
@@ -3664,39 +3652,39 @@
         <v>78.640508100000005</v>
       </c>
       <c r="AK38" s="3">
-        <f t="shared" ref="AK38:AR38" si="62">AJ38*(1+AK55)</f>
+        <f t="shared" ref="AK38:AR38" si="64">AJ38*(1+AK55)</f>
         <v>88.863774152999994</v>
       </c>
       <c r="AL38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>100.41606479288998</v>
       </c>
       <c r="AM38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>113.47015321596567</v>
       </c>
       <c r="AN38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>128.22127313404118</v>
       </c>
       <c r="AO38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>144.89003864146653</v>
       </c>
       <c r="AP38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>163.72574366485716</v>
       </c>
       <c r="AQ38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>185.01009034128859</v>
       </c>
       <c r="AR38" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>209.06140208565608</v>
       </c>
     </row>
-    <row r="39" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
         <v>25</v>
@@ -3754,27 +3742,27 @@
         <v>17.190000000000001</v>
       </c>
       <c r="T39" s="3">
-        <f t="shared" ref="T39:V39" si="63">P39*(1+T56)</f>
+        <f t="shared" ref="T39:V39" si="65">P39*(1+T56)</f>
         <v>18.252000000000002</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>16.41123</v>
       </c>
       <c r="V39" s="3">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>14.2506</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="3">
         <v>17.28</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="3">
         <v>31.3</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39" s="3">
         <v>44.05</v>
       </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="3">
         <v>68.378</v>
       </c>
       <c r="AD39" s="3">
@@ -3794,7 +3782,7 @@
         <v>73.448700000000002</v>
       </c>
       <c r="AI39" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>66.103830000000016</v>
       </c>
       <c r="AJ39" s="3">
@@ -3802,39 +3790,39 @@
         <v>74.036289600000032</v>
       </c>
       <c r="AK39" s="3">
-        <f t="shared" ref="AK39:AR39" si="64">AJ39*(1+AK56)</f>
+        <f t="shared" ref="AK39:AR39" si="66">AJ39*(1+AK56)</f>
         <v>82.920644352000039</v>
       </c>
       <c r="AL39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>92.871121674240058</v>
       </c>
       <c r="AM39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>104.01565627514887</v>
       </c>
       <c r="AN39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>116.49753502816675</v>
       </c>
       <c r="AO39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>130.47723923154678</v>
       </c>
       <c r="AP39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>146.13450793933239</v>
       </c>
       <c r="AQ39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>163.6706488920523</v>
       </c>
       <c r="AR39" s="3">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>183.31112675909858</v>
       </c>
     </row>
-    <row r="40" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
         <v>26</v>
@@ -3903,16 +3891,16 @@
         <f>V34*V57</f>
         <v>12.888603000000002</v>
       </c>
-      <c r="Z40" s="13">
+      <c r="Z40" s="3">
         <v>45.91</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40" s="3">
         <v>51.52</v>
       </c>
-      <c r="AB40" s="13">
+      <c r="AB40" s="3">
         <v>50.83</v>
       </c>
-      <c r="AC40" s="13">
+      <c r="AC40" s="3">
         <v>36.14</v>
       </c>
       <c r="AD40" s="3">
@@ -3932,7 +3920,7 @@
         <v>27.088200000000001</v>
       </c>
       <c r="AI40" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>44.898307000000003</v>
       </c>
       <c r="AJ40" s="3">
@@ -3940,39 +3928,39 @@
         <v>63.581035904961368</v>
       </c>
       <c r="AK40" s="3">
-        <f t="shared" ref="AK40:AR40" si="65">AK34*AK57</f>
+        <f t="shared" ref="AK40:AR40" si="67">AK34*AK57</f>
         <v>68.424268460250602</v>
       </c>
       <c r="AL40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>77.889100541995617</v>
       </c>
       <c r="AM40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>82.43837605396854</v>
       </c>
       <c r="AN40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>77.763203719468876</v>
       </c>
       <c r="AO40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>92.173322920258997</v>
       </c>
       <c r="AP40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>101.37189832498377</v>
       </c>
       <c r="AQ40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>108.21601233162033</v>
       </c>
       <c r="AR40" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>115.69186634200219</v>
       </c>
     </row>
-    <row r="41" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
         <v>27</v>
@@ -4030,27 +4018,27 @@
         <v>80.650500000000008</v>
       </c>
       <c r="T41" s="3">
-        <f t="shared" ref="T41:V41" si="66">P41*(1+T58)</f>
+        <f t="shared" ref="T41:V41" si="68">P41*(1+T58)</f>
         <v>85.701000000000008</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>85.93683</v>
       </c>
       <c r="V41" s="3">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>112.05085500000001</v>
       </c>
-      <c r="Z41" s="13">
+      <c r="Z41" s="3">
         <v>205.55</v>
       </c>
-      <c r="AA41" s="13">
+      <c r="AA41" s="3">
         <v>313.58999999999997</v>
       </c>
-      <c r="AB41" s="13">
+      <c r="AB41" s="3">
         <v>368.37</v>
       </c>
-      <c r="AC41" s="13">
+      <c r="AC41" s="3">
         <v>396.69</v>
       </c>
       <c r="AD41" s="3">
@@ -4070,7 +4058,7 @@
         <v>346.98970000000003</v>
       </c>
       <c r="AI41" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>364.33918500000004</v>
       </c>
       <c r="AJ41" s="3">
@@ -4078,39 +4066,39 @@
         <v>400.7731035000001</v>
       </c>
       <c r="AK41" s="3">
-        <f t="shared" ref="AK41:AR41" si="67">AJ41*(1+AK58)</f>
+        <f t="shared" ref="AK41:AR41" si="69">AJ41*(1+AK58)</f>
         <v>440.85041385000017</v>
       </c>
       <c r="AL41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>484.93545523500023</v>
       </c>
       <c r="AM41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>557.67577352025023</v>
       </c>
       <c r="AN41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>624.5968663426803</v>
       </c>
       <c r="AO41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>687.05655297694841</v>
       </c>
       <c r="AP41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>755.76220827464329</v>
       </c>
       <c r="AQ41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>831.33842910210763</v>
       </c>
       <c r="AR41" s="3">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>914.47227201231851</v>
       </c>
     </row>
-    <row r="42" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="6" t="s">
         <v>28</v>
@@ -4124,55 +4112,55 @@
         <v>82.69</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" ref="E42:G42" si="68">SUM(E37:E41)</f>
+        <f t="shared" ref="E42:G42" si="70">SUM(E37:E41)</f>
         <v>67.61</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>65.900000000000006</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>81.150000000000006</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" ref="H42:I42" si="69">SUM(H37:H41)</f>
+        <f t="shared" ref="H42:I42" si="71">SUM(H37:H41)</f>
         <v>86.31</v>
       </c>
       <c r="I42" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>77.260000000000005</v>
       </c>
       <c r="J42" s="9">
-        <f t="shared" ref="J42:L42" si="70">SUM(J37:J41)</f>
+        <f t="shared" ref="J42:L42" si="72">SUM(J37:J41)</f>
         <v>91.84</v>
       </c>
       <c r="K42" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>48.63</v>
       </c>
       <c r="L42" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>109.48</v>
       </c>
       <c r="M42" s="9">
-        <f t="shared" ref="M42:O42" si="71">SUM(M37:M41)</f>
+        <f t="shared" ref="M42:O42" si="73">SUM(M37:M41)</f>
         <v>140.80000000000001</v>
       </c>
       <c r="N42" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>154.39400000000001</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>103.66</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" ref="P42:Q42" si="72">SUM(P37:P41)</f>
+        <f t="shared" ref="P42:Q42" si="74">SUM(P37:P41)</f>
         <v>167.66</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>130.35079999999999</v>
       </c>
       <c r="R42" s="9">
@@ -4180,19 +4168,19 @@
         <v>148.47579999999999</v>
       </c>
       <c r="S42" s="9">
-        <f t="shared" ref="S42:V42" si="73">SUM(S37:S41)</f>
+        <f t="shared" ref="S42:V42" si="75">SUM(S37:S41)</f>
         <v>127.45092025000001</v>
       </c>
       <c r="T42" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>135.64124500000003</v>
       </c>
       <c r="U42" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>132.21541250000001</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>161.11123925000001</v>
       </c>
       <c r="Z42" s="9">
@@ -4204,11 +4192,11 @@
         <v>798.73</v>
       </c>
       <c r="AB42" s="9">
-        <f t="shared" ref="AB42:AC42" si="74">SUM(AB37:AB41)</f>
+        <f t="shared" ref="AB42:AC42" si="76">SUM(AB37:AB41)</f>
         <v>770.66</v>
       </c>
       <c r="AC42" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>682.75800000000004</v>
       </c>
       <c r="AD42" s="9">
@@ -4220,59 +4208,59 @@
         <v>505.38</v>
       </c>
       <c r="AF42" s="9">
-        <f t="shared" ref="AF42:AH42" si="75">SUM(AF37:AF41)</f>
+        <f t="shared" ref="AF42:AH42" si="77">SUM(AF37:AF41)</f>
         <v>340.97</v>
       </c>
       <c r="AG42" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>454.03</v>
       </c>
       <c r="AH42" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>550.14660000000003</v>
       </c>
       <c r="AI42" s="9">
-        <f t="shared" ref="AI42" si="76">SUM(AI37:AI41)</f>
+        <f t="shared" ref="AI42" si="78">SUM(AI37:AI41)</f>
         <v>556.41881699999999</v>
       </c>
       <c r="AJ42" s="9">
-        <f t="shared" ref="AJ42" si="77">SUM(AJ37:AJ41)</f>
+        <f t="shared" ref="AJ42" si="79">SUM(AJ37:AJ41)</f>
         <v>615.13988210496154</v>
       </c>
       <c r="AK42" s="9">
-        <f t="shared" ref="AK42" si="78">SUM(AK37:AK41)</f>
+        <f t="shared" ref="AK42" si="80">SUM(AK37:AK41)</f>
         <v>679.16804581525082</v>
       </c>
       <c r="AL42" s="9">
-        <f t="shared" ref="AL42" si="79">SUM(AL37:AL41)</f>
+        <f t="shared" ref="AL42" si="81">SUM(AL37:AL41)</f>
         <v>754.22068724412588</v>
       </c>
       <c r="AM42" s="9">
-        <f t="shared" ref="AM42" si="80">SUM(AM37:AM41)</f>
+        <f t="shared" ref="AM42" si="82">SUM(AM37:AM41)</f>
         <v>855.70890406533329</v>
       </c>
       <c r="AN42" s="9">
-        <f t="shared" ref="AN42" si="81">SUM(AN37:AN41)</f>
+        <f t="shared" ref="AN42" si="83">SUM(AN37:AN41)</f>
         <v>945.18782322435709</v>
       </c>
       <c r="AO42" s="9">
-        <f t="shared" ref="AO42" si="82">SUM(AO37:AO41)</f>
+        <f t="shared" ref="AO42" si="84">SUM(AO37:AO41)</f>
         <v>1052.7060987702207</v>
       </c>
       <c r="AP42" s="9">
-        <f t="shared" ref="AP42" si="83">SUM(AP37:AP41)</f>
+        <f t="shared" ref="AP42" si="85">SUM(AP37:AP41)</f>
         <v>1165.1033032038167</v>
       </c>
       <c r="AQ42" s="9">
-        <f t="shared" ref="AQ42" si="84">SUM(AQ37:AQ41)</f>
+        <f t="shared" ref="AQ42" si="86">SUM(AQ37:AQ41)</f>
         <v>1286.344125667069</v>
       </c>
       <c r="AR42" s="9">
-        <f t="shared" ref="AR42" si="85">SUM(AR37:AR41)</f>
+        <f t="shared" ref="AR42" si="87">SUM(AR37:AR41)</f>
         <v>1420.6456121990755</v>
       </c>
     </row>
-    <row r="43" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="6" t="s">
         <v>29</v>
@@ -4286,55 +4274,55 @@
         <v>19.3108</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" ref="E43:G43" si="86">E36-E42</f>
+        <f t="shared" ref="E43:G43" si="88">E36-E42</f>
         <v>24.739999999999966</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>20.55000000000004</v>
       </c>
       <c r="G43" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>28.253199999999936</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" ref="H43:I43" si="87">H36-H42</f>
+        <f t="shared" ref="H43:I43" si="89">H36-H42</f>
         <v>25.870000000000005</v>
       </c>
       <c r="I43" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>25.817099999999968</v>
       </c>
       <c r="J43" s="9">
-        <f t="shared" ref="J43:L43" si="88">J36-J42</f>
+        <f t="shared" ref="J43:L43" si="90">J36-J42</f>
         <v>27.304599999999965</v>
       </c>
       <c r="K43" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>28.350000000000016</v>
       </c>
       <c r="L43" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>46.134500000000074</v>
       </c>
       <c r="M43" s="9">
-        <f t="shared" ref="M43:O43" si="89">M36-M42</f>
+        <f t="shared" ref="M43:O43" si="91">M36-M42</f>
         <v>54.672800000000109</v>
       </c>
       <c r="N43" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>75.171500000000037</v>
       </c>
       <c r="O43" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>90.109699999999947</v>
       </c>
       <c r="P43" s="9">
-        <f t="shared" ref="P43:Q43" si="90">P36-P42</f>
+        <f t="shared" ref="P43:Q43" si="92">P36-P42</f>
         <v>94.93169999999995</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>100.11149999999992</v>
       </c>
       <c r="R43" s="9">
@@ -4342,19 +4330,19 @@
         <v>111.99729999999994</v>
       </c>
       <c r="S43" s="9">
-        <f t="shared" ref="S43:V43" si="91">S36-S42</f>
+        <f t="shared" ref="S43:V43" si="93">S36-S42</f>
         <v>116.13441574999997</v>
       </c>
       <c r="T43" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>120.76788499999998</v>
       </c>
       <c r="U43" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>136.02301749999998</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>148.21523275000001</v>
       </c>
       <c r="Z43" s="9">
@@ -4366,11 +4354,11 @@
         <v>54.269999999999982</v>
       </c>
       <c r="AB43" s="9">
-        <f t="shared" ref="AB43:AC43" si="92">AB36-AB42</f>
+        <f t="shared" ref="AB43:AC43" si="94">AB36-AB42</f>
         <v>-161.73000000000002</v>
       </c>
       <c r="AC43" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>-17.128000000000156</v>
       </c>
       <c r="AD43" s="9">
@@ -4382,61 +4370,61 @@
         <v>-5.5600000000000591</v>
       </c>
       <c r="AF43" s="9">
-        <f t="shared" ref="AF43:AH43" si="93">AF36-AF42</f>
+        <f t="shared" ref="AF43:AH43" si="95">AF36-AF42</f>
         <v>107</v>
       </c>
       <c r="AG43" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>202.84039999999982</v>
       </c>
       <c r="AH43" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>397.1502000000005</v>
       </c>
       <c r="AI43" s="9">
-        <f t="shared" ref="AI43" si="94">AI36-AI42</f>
+        <f t="shared" ref="AI43" si="96">AI36-AI42</f>
         <v>521.14055099999996</v>
       </c>
       <c r="AJ43" s="9">
-        <f t="shared" ref="AJ43" si="95">AJ36-AJ42</f>
+        <f t="shared" ref="AJ43" si="97">AJ36-AJ42</f>
         <v>910.80497961411106</v>
       </c>
       <c r="AK43" s="9">
-        <f t="shared" ref="AK43" si="96">AK36-AK42</f>
+        <f t="shared" ref="AK43" si="98">AK36-AK42</f>
         <v>1031.4386656910142</v>
       </c>
       <c r="AL43" s="9">
-        <f t="shared" ref="AL43" si="97">AL36-AL42</f>
+        <f t="shared" ref="AL43" si="99">AL36-AL42</f>
         <v>1193.0068263057644</v>
       </c>
       <c r="AM43" s="9">
-        <f t="shared" ref="AM43" si="98">AM36-AM42</f>
+        <f t="shared" ref="AM43" si="100">AM36-AM42</f>
         <v>1287.6888733378487</v>
       </c>
       <c r="AN43" s="9">
-        <f t="shared" ref="AN43" si="99">AN36-AN42</f>
+        <f t="shared" ref="AN43" si="101">AN36-AN42</f>
         <v>1154.4186772013027</v>
       </c>
       <c r="AO43" s="9">
-        <f t="shared" ref="AO43" si="100">AO36-AO42</f>
+        <f t="shared" ref="AO43" si="102">AO36-AO42</f>
         <v>1528.1469429970316</v>
       </c>
       <c r="AP43" s="9">
-        <f t="shared" ref="AP43" si="101">AP36-AP42</f>
+        <f t="shared" ref="AP43" si="103">AP36-AP42</f>
         <v>1774.6817482207125</v>
       </c>
       <c r="AQ43" s="9">
-        <f t="shared" ref="AQ43" si="102">AQ36-AQ42</f>
+        <f t="shared" ref="AQ43" si="104">AQ36-AQ42</f>
         <v>1851.9202319499204</v>
       </c>
       <c r="AR43" s="9">
-        <f t="shared" ref="AR43" si="103">AR36-AR42</f>
+        <f t="shared" ref="AR43" si="105">AR36-AR42</f>
         <v>2050.1103780609897</v>
       </c>
     </row>
-    <row r="44" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="5" t="s">
         <v>134</v>
       </c>
       <c r="C44" s="9"/>
@@ -4455,43 +4443,43 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="13">
+      <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="13">
+      <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="13">
+      <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="13">
+      <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="13">
+      <c r="Z44" s="3">
         <v>0</v>
       </c>
-      <c r="AA44" s="13">
+      <c r="AA44" s="3">
         <v>0.05</v>
       </c>
-      <c r="AB44" s="13">
+      <c r="AB44" s="3">
         <v>0.32</v>
       </c>
-      <c r="AC44" s="13">
+      <c r="AC44" s="3">
         <v>0.03</v>
       </c>
-      <c r="AD44" s="13">
+      <c r="AD44" s="3">
         <v>-0.1</v>
       </c>
-      <c r="AE44" s="13">
+      <c r="AE44" s="3">
         <v>0</v>
       </c>
-      <c r="AF44" s="13">
+      <c r="AF44" s="3">
         <v>0</v>
       </c>
-      <c r="AG44" s="13">
+      <c r="AG44" s="3">
         <v>-12.72</v>
       </c>
-      <c r="AH44" s="13">
+      <c r="AH44" s="3">
         <v>0</v>
       </c>
       <c r="AI44" s="3">
@@ -4526,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
         <v>30</v>
@@ -4579,31 +4567,31 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="13">
+      <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="13">
+      <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="13">
+      <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="13">
+      <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="13">
+      <c r="Z45" s="3">
         <v>20.85</v>
       </c>
-      <c r="AA45" s="13">
+      <c r="AA45" s="3">
         <v>4.49</v>
       </c>
-      <c r="AB45" s="13">
+      <c r="AB45" s="3">
         <v>5.09</v>
       </c>
-      <c r="AC45" s="13">
+      <c r="AC45" s="3">
         <v>38.32</v>
       </c>
-      <c r="AD45" s="13">
+      <c r="AD45" s="3">
         <v>0</v>
       </c>
       <c r="AE45" s="3">
@@ -4652,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="6" t="s">
         <v>31</v>
@@ -4662,7 +4650,7 @@
         <v>-4.4699999999999918</v>
       </c>
       <c r="D46" s="9">
-        <f t="shared" ref="D46" si="104">D43-D45</f>
+        <f t="shared" ref="D46" si="106">D43-D45</f>
         <v>19.3108</v>
       </c>
       <c r="E46" s="9">
@@ -4670,15 +4658,15 @@
         <v>29.079999999999966</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" ref="F46:G46" si="105">F43-F45</f>
+        <f t="shared" ref="F46:G46" si="107">F43-F45</f>
         <v>20.55000000000004</v>
       </c>
       <c r="G46" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>28.253199999999936</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" ref="H46" si="106">H43-H45</f>
+        <f t="shared" ref="H46" si="108">H43-H45</f>
         <v>25.870000000000005</v>
       </c>
       <c r="I46" s="9">
@@ -4686,11 +4674,11 @@
         <v>25.817099999999968</v>
       </c>
       <c r="J46" s="9">
-        <f t="shared" ref="J46:K46" si="107">J43-J45</f>
+        <f t="shared" ref="J46:K46" si="109">J43-J45</f>
         <v>27.304599999999965</v>
       </c>
       <c r="K46" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>28.350000000000016</v>
       </c>
       <c r="L46" s="9">
@@ -4698,43 +4686,43 @@
         <v>-0.13549999999992934</v>
       </c>
       <c r="M46" s="9">
-        <f t="shared" ref="M46:V46" si="108">M43-M45</f>
+        <f t="shared" ref="M46:V46" si="110">M43-M45</f>
         <v>54.672800000000109</v>
       </c>
       <c r="N46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>75.171500000000037</v>
       </c>
       <c r="O46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>90.109699999999947</v>
       </c>
       <c r="P46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>94.93169999999995</v>
       </c>
       <c r="Q46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>100.11149999999992</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>111.99729999999994</v>
       </c>
       <c r="S46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>116.13441574999997</v>
       </c>
       <c r="T46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>120.76788499999998</v>
       </c>
       <c r="U46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>136.02301749999998</v>
       </c>
       <c r="V46" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>148.21523275000001</v>
       </c>
       <c r="Z46" s="9">
@@ -4746,11 +4734,11 @@
         <v>49.829999999999977</v>
       </c>
       <c r="AB46" s="9">
-        <f t="shared" ref="AB46:AC46" si="109">AB43+AB44-AB45</f>
+        <f t="shared" ref="AB46:AC46" si="111">AB43+AB44-AB45</f>
         <v>-166.50000000000003</v>
       </c>
       <c r="AC46" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-55.418000000000156</v>
       </c>
       <c r="AD46" s="9">
@@ -4762,7 +4750,7 @@
         <v>-5.5600000000000591</v>
       </c>
       <c r="AF46" s="9">
-        <f t="shared" ref="AF46:AH46" si="110">AF43-AF45</f>
+        <f t="shared" ref="AF46:AH46" si="112">AF43-AF45</f>
         <v>107</v>
       </c>
       <c r="AG46" s="9">
@@ -4770,51 +4758,51 @@
         <v>190.12039999999982</v>
       </c>
       <c r="AH46" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>397.1502000000005</v>
       </c>
       <c r="AI46" s="9">
-        <f t="shared" ref="AI46" si="111">AI43-AI45</f>
+        <f t="shared" ref="AI46" si="113">AI43-AI45</f>
         <v>521.14055099999996</v>
       </c>
       <c r="AJ46" s="9">
-        <f t="shared" ref="AJ46" si="112">AJ43-AJ45</f>
+        <f t="shared" ref="AJ46" si="114">AJ43-AJ45</f>
         <v>910.80497961411106</v>
       </c>
       <c r="AK46" s="9">
-        <f t="shared" ref="AK46" si="113">AK43-AK45</f>
+        <f t="shared" ref="AK46" si="115">AK43-AK45</f>
         <v>1031.4386656910142</v>
       </c>
       <c r="AL46" s="9">
-        <f t="shared" ref="AL46" si="114">AL43-AL45</f>
+        <f t="shared" ref="AL46" si="116">AL43-AL45</f>
         <v>1193.0068263057644</v>
       </c>
       <c r="AM46" s="9">
-        <f t="shared" ref="AM46" si="115">AM43-AM45</f>
+        <f t="shared" ref="AM46" si="117">AM43-AM45</f>
         <v>1287.6888733378487</v>
       </c>
       <c r="AN46" s="9">
-        <f t="shared" ref="AN46" si="116">AN43-AN45</f>
+        <f t="shared" ref="AN46" si="118">AN43-AN45</f>
         <v>1154.4186772013027</v>
       </c>
       <c r="AO46" s="9">
-        <f t="shared" ref="AO46" si="117">AO43-AO45</f>
+        <f t="shared" ref="AO46" si="119">AO43-AO45</f>
         <v>1528.1469429970316</v>
       </c>
       <c r="AP46" s="9">
-        <f t="shared" ref="AP46" si="118">AP43-AP45</f>
+        <f t="shared" ref="AP46" si="120">AP43-AP45</f>
         <v>1774.6817482207125</v>
       </c>
       <c r="AQ46" s="9">
-        <f t="shared" ref="AQ46" si="119">AQ43-AQ45</f>
+        <f t="shared" ref="AQ46" si="121">AQ43-AQ45</f>
         <v>1851.9202319499204</v>
       </c>
       <c r="AR46" s="9">
-        <f t="shared" ref="AR46" si="120">AR43-AR45</f>
+        <f t="shared" ref="AR46" si="122">AR43-AR45</f>
         <v>2050.1103780609897</v>
       </c>
     </row>
-    <row r="47" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="s">
         <v>32</v>
@@ -4872,30 +4860,30 @@
         <v>29.033603937499993</v>
       </c>
       <c r="T47" s="3">
-        <f t="shared" ref="T47:V47" si="121">T54*T46</f>
+        <f t="shared" ref="T47:V47" si="123">T54*T46</f>
         <v>30.191971249999995</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>34.005754374999995</v>
       </c>
       <c r="V47" s="3">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>37.053808187500003</v>
       </c>
-      <c r="Z47" s="13">
+      <c r="Z47" s="3">
         <v>6.71</v>
       </c>
-      <c r="AA47" s="13">
+      <c r="AA47" s="3">
         <v>22.26</v>
       </c>
-      <c r="AB47" s="13">
+      <c r="AB47" s="3">
         <v>-19.940000000000001</v>
       </c>
-      <c r="AC47" s="13">
+      <c r="AC47" s="3">
         <v>-32.96</v>
       </c>
-      <c r="AD47" s="13">
+      <c r="AD47" s="3">
         <v>-20.5</v>
       </c>
       <c r="AE47" s="9">
@@ -4920,39 +4908,39 @@
         <v>227.70124490352777</v>
       </c>
       <c r="AK47" s="3">
-        <f t="shared" ref="AK47:AR47" si="122">AK46*AK54</f>
+        <f t="shared" ref="AK47:AR47" si="124">AK46*AK54</f>
         <v>257.85966642275355</v>
       </c>
       <c r="AL47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>298.25170657644111</v>
       </c>
       <c r="AM47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>321.92221833446217</v>
       </c>
       <c r="AN47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>288.60466930032567</v>
       </c>
       <c r="AO47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>382.0367357492579</v>
       </c>
       <c r="AP47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>443.67043705517813</v>
       </c>
       <c r="AQ47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>462.98005798748011</v>
       </c>
       <c r="AR47" s="3">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>512.52759451524742</v>
       </c>
     </row>
-    <row r="48" spans="1:185" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:185" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>33</v>
@@ -4966,55 +4954,55 @@
         <v>13.950800000000001</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" ref="E48:G48" si="123">E46-E47</f>
+        <f t="shared" ref="E48:G48" si="125">E46-E47</f>
         <v>22.199999999999967</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>17.150000000000041</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>20.663199999999936</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48:I48" si="124">H46-H47</f>
+        <f t="shared" ref="H48:I48" si="126">H46-H47</f>
         <v>18.870000000000005</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>18.537099999999967</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" ref="J48:L48" si="125">J46-J47</f>
+        <f t="shared" ref="J48:L48" si="127">J46-J47</f>
         <v>21.054599999999965</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>22.620000000000015</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>-11.835499999999929</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" ref="M48:O48" si="126">M46-M47</f>
+        <f t="shared" ref="M48:O48" si="128">M46-M47</f>
         <v>38.802800000000111</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>53.010000000000034</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>67.639699999999948</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" ref="P48:Q48" si="127">P46-P47</f>
+        <f t="shared" ref="P48:Q48" si="129">P46-P47</f>
         <v>70.941699999999955</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>75.025499999999923</v>
       </c>
       <c r="R48" s="10">
@@ -5022,19 +5010,19 @@
         <v>83.414599999999936</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" ref="S48:V48" si="128">S46-S47</f>
+        <f t="shared" ref="S48:V48" si="130">S46-S47</f>
         <v>87.100811812499984</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>90.575913749999984</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>102.01726312499999</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>111.1614245625</v>
       </c>
       <c r="Z48" s="10">
@@ -5046,11 +5034,11 @@
         <v>27.569999999999975</v>
       </c>
       <c r="AB48" s="10">
-        <f t="shared" ref="AB48:AC48" si="129">AB46-AB47</f>
+        <f t="shared" ref="AB48:AC48" si="131">AB46-AB47</f>
         <v>-146.56000000000003</v>
       </c>
       <c r="AC48" s="10">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>-22.458000000000155</v>
       </c>
       <c r="AD48" s="10">
@@ -5062,623 +5050,623 @@
         <v>-18.760000000000058</v>
       </c>
       <c r="AF48" s="10">
-        <f t="shared" ref="AF48:AH48" si="130">AF46-AF47</f>
+        <f t="shared" ref="AF48:AH48" si="132">AF46-AF47</f>
         <v>77.81</v>
       </c>
       <c r="AG48" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>134.66039999999981</v>
       </c>
       <c r="AH48" s="10">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>297.02150000000051</v>
       </c>
       <c r="AI48" s="10">
-        <f t="shared" ref="AI48" si="131">AI46-AI47</f>
+        <f t="shared" ref="AI48" si="133">AI46-AI47</f>
         <v>390.85541324999997</v>
       </c>
       <c r="AJ48" s="10">
-        <f t="shared" ref="AJ48" si="132">AJ46-AJ47</f>
+        <f t="shared" ref="AJ48" si="134">AJ46-AJ47</f>
         <v>683.10373471058324</v>
       </c>
       <c r="AK48" s="10">
-        <f t="shared" ref="AK48" si="133">AK46-AK47</f>
+        <f t="shared" ref="AK48" si="135">AK46-AK47</f>
         <v>773.57899926826065</v>
       </c>
       <c r="AL48" s="10">
-        <f t="shared" ref="AL48" si="134">AL46-AL47</f>
+        <f t="shared" ref="AL48" si="136">AL46-AL47</f>
         <v>894.75511972932327</v>
       </c>
       <c r="AM48" s="10">
-        <f t="shared" ref="AM48" si="135">AM46-AM47</f>
+        <f t="shared" ref="AM48" si="137">AM46-AM47</f>
         <v>965.76665500338652</v>
       </c>
       <c r="AN48" s="10">
-        <f t="shared" ref="AN48" si="136">AN46-AN47</f>
+        <f t="shared" ref="AN48" si="138">AN46-AN47</f>
         <v>865.814007900977</v>
       </c>
       <c r="AO48" s="10">
-        <f t="shared" ref="AO48" si="137">AO46-AO47</f>
+        <f t="shared" ref="AO48" si="139">AO46-AO47</f>
         <v>1146.1102072477738</v>
       </c>
       <c r="AP48" s="10">
-        <f t="shared" ref="AP48" si="138">AP46-AP47</f>
+        <f t="shared" ref="AP48" si="140">AP46-AP47</f>
         <v>1331.0113111655344</v>
       </c>
       <c r="AQ48" s="10">
-        <f t="shared" ref="AQ48" si="139">AQ46-AQ47</f>
+        <f t="shared" ref="AQ48" si="141">AQ46-AQ47</f>
         <v>1388.9401739624404</v>
       </c>
       <c r="AR48" s="10">
-        <f t="shared" ref="AR48" si="140">AR46-AR47</f>
+        <f t="shared" ref="AR48" si="142">AR46-AR47</f>
         <v>1537.5827835457421</v>
       </c>
       <c r="AS48" s="10">
         <f>AR48*(1+$AV$55)</f>
-        <v>1591.398180969843</v>
+        <v>1583.7102670521144</v>
       </c>
       <c r="AT48" s="10">
-        <f t="shared" ref="AT48:DE48" si="141">AS48*(1+$AV$55)</f>
-        <v>1647.0971173037874</v>
+        <f t="shared" ref="AT48:DE48" si="143">AS48*(1+$AV$55)</f>
+        <v>1631.2215750636778</v>
       </c>
       <c r="AU48" s="10">
-        <f t="shared" si="141"/>
-        <v>1704.7455164094199</v>
+        <f t="shared" si="143"/>
+        <v>1680.1582223155883</v>
       </c>
       <c r="AV48" s="10">
-        <f t="shared" si="141"/>
-        <v>1764.4116094837495</v>
+        <f t="shared" si="143"/>
+        <v>1730.5629689850559</v>
       </c>
       <c r="AW48" s="10">
-        <f t="shared" si="141"/>
-        <v>1826.1660158156806</v>
+        <f t="shared" si="143"/>
+        <v>1782.4798580546076</v>
       </c>
       <c r="AX48" s="10">
-        <f t="shared" si="141"/>
-        <v>1890.0818263692292</v>
+        <f t="shared" si="143"/>
+        <v>1835.9542537962459</v>
       </c>
       <c r="AY48" s="10">
-        <f t="shared" si="141"/>
-        <v>1956.2346902921522</v>
+        <f t="shared" si="143"/>
+        <v>1891.0328814101333</v>
       </c>
       <c r="AZ48" s="10">
-        <f t="shared" si="141"/>
-        <v>2024.7029044523774</v>
+        <f t="shared" si="143"/>
+        <v>1947.7638678524374</v>
       </c>
       <c r="BA48" s="10">
-        <f t="shared" si="141"/>
-        <v>2095.5675061082106</v>
+        <f t="shared" si="143"/>
+        <v>2006.1967838880107</v>
       </c>
       <c r="BB48" s="10">
-        <f t="shared" si="141"/>
-        <v>2168.9123688219979</v>
+        <f t="shared" si="143"/>
+        <v>2066.3826874046513</v>
       </c>
       <c r="BC48" s="10">
-        <f t="shared" si="141"/>
-        <v>2244.8243017307677</v>
+        <f t="shared" si="143"/>
+        <v>2128.3741680267908</v>
       </c>
       <c r="BD48" s="10">
-        <f t="shared" si="141"/>
-        <v>2323.3931522913444</v>
+        <f t="shared" si="143"/>
+        <v>2192.2253930675947</v>
       </c>
       <c r="BE48" s="10">
-        <f t="shared" si="141"/>
-        <v>2404.7119126215412</v>
+        <f t="shared" si="143"/>
+        <v>2257.9921548596226</v>
       </c>
       <c r="BF48" s="10">
-        <f t="shared" si="141"/>
-        <v>2488.8768295632949</v>
+        <f t="shared" si="143"/>
+        <v>2325.7319195054115</v>
       </c>
       <c r="BG48" s="10">
-        <f t="shared" si="141"/>
-        <v>2575.98751859801</v>
+        <f t="shared" si="143"/>
+        <v>2395.503877090574</v>
       </c>
       <c r="BH48" s="10">
-        <f t="shared" si="141"/>
-        <v>2666.1470817489403</v>
+        <f t="shared" si="143"/>
+        <v>2467.3689934032914</v>
       </c>
       <c r="BI48" s="10">
-        <f t="shared" si="141"/>
-        <v>2759.4622296101529</v>
+        <f t="shared" si="143"/>
+        <v>2541.3900632053901</v>
       </c>
       <c r="BJ48" s="10">
-        <f t="shared" si="141"/>
-        <v>2856.0434076465081</v>
+        <f t="shared" si="143"/>
+        <v>2617.631765101552</v>
       </c>
       <c r="BK48" s="10">
-        <f t="shared" si="141"/>
-        <v>2956.0049269141355</v>
+        <f t="shared" si="143"/>
+        <v>2696.1607180545984</v>
       </c>
       <c r="BL48" s="10">
-        <f t="shared" si="141"/>
-        <v>3059.4650993561299</v>
+        <f t="shared" si="143"/>
+        <v>2777.0455395962363</v>
       </c>
       <c r="BM48" s="10">
-        <f t="shared" si="141"/>
-        <v>3166.5463778335943</v>
+        <f t="shared" si="143"/>
+        <v>2860.3569057841232</v>
       </c>
       <c r="BN48" s="10">
-        <f t="shared" si="141"/>
-        <v>3277.3755010577697</v>
+        <f t="shared" si="143"/>
+        <v>2946.1676129576472</v>
       </c>
       <c r="BO48" s="10">
-        <f t="shared" si="141"/>
-        <v>3392.0836435947913</v>
+        <f t="shared" si="143"/>
+        <v>3034.5526413463767</v>
       </c>
       <c r="BP48" s="10">
-        <f t="shared" si="141"/>
-        <v>3510.8065711206086</v>
+        <f t="shared" si="143"/>
+        <v>3125.5892205867681</v>
       </c>
       <c r="BQ48" s="10">
-        <f t="shared" si="141"/>
-        <v>3633.6848011098296</v>
+        <f t="shared" si="143"/>
+        <v>3219.3568972043713</v>
       </c>
       <c r="BR48" s="10">
-        <f t="shared" si="141"/>
-        <v>3760.8637691486733</v>
+        <f t="shared" si="143"/>
+        <v>3315.9376041205023</v>
       </c>
       <c r="BS48" s="10">
-        <f t="shared" si="141"/>
-        <v>3892.4940010688765</v>
+        <f t="shared" si="143"/>
+        <v>3415.4157322441174</v>
       </c>
       <c r="BT48" s="10">
-        <f t="shared" si="141"/>
-        <v>4028.7312911062868</v>
+        <f t="shared" si="143"/>
+        <v>3517.8782042114412</v>
       </c>
       <c r="BU48" s="10">
-        <f t="shared" si="141"/>
-        <v>4169.7368862950061</v>
+        <f t="shared" si="143"/>
+        <v>3623.4145503377845</v>
       </c>
       <c r="BV48" s="10">
-        <f t="shared" si="141"/>
-        <v>4315.6776773153306</v>
+        <f t="shared" si="143"/>
+        <v>3732.1169868479183</v>
       </c>
       <c r="BW48" s="10">
-        <f t="shared" si="141"/>
-        <v>4466.7263960213668</v>
+        <f t="shared" si="143"/>
+        <v>3844.0804964533559</v>
       </c>
       <c r="BX48" s="10">
-        <f t="shared" si="141"/>
-        <v>4623.0618198821139</v>
+        <f t="shared" si="143"/>
+        <v>3959.4029113469564</v>
       </c>
       <c r="BY48" s="10">
-        <f t="shared" si="141"/>
-        <v>4784.8689835779878</v>
+        <f t="shared" si="143"/>
+        <v>4078.1849986873654</v>
       </c>
       <c r="BZ48" s="10">
-        <f t="shared" si="141"/>
-        <v>4952.339398003217</v>
+        <f t="shared" si="143"/>
+        <v>4200.5305486479865</v>
       </c>
       <c r="CA48" s="10">
-        <f t="shared" si="141"/>
-        <v>5125.671276933329</v>
+        <f t="shared" si="143"/>
+        <v>4326.5464651074262</v>
       </c>
       <c r="CB48" s="10">
-        <f t="shared" si="141"/>
-        <v>5305.0697716259947</v>
+        <f t="shared" si="143"/>
+        <v>4456.3428590606491</v>
       </c>
       <c r="CC48" s="10">
-        <f t="shared" si="141"/>
-        <v>5490.7472136329043</v>
+        <f t="shared" si="143"/>
+        <v>4590.0331448324687</v>
       </c>
       <c r="CD48" s="10">
-        <f t="shared" si="141"/>
-        <v>5682.9233661100552</v>
+        <f t="shared" si="143"/>
+        <v>4727.7341391774426</v>
       </c>
       <c r="CE48" s="10">
-        <f t="shared" si="141"/>
-        <v>5881.8256839239066</v>
+        <f t="shared" si="143"/>
+        <v>4869.5661633527661</v>
       </c>
       <c r="CF48" s="10">
-        <f t="shared" si="141"/>
-        <v>6087.6895828612433</v>
+        <f t="shared" si="143"/>
+        <v>5015.6531482533492</v>
       </c>
       <c r="CG48" s="10">
-        <f t="shared" si="141"/>
-        <v>6300.7587182613861</v>
+        <f t="shared" si="143"/>
+        <v>5166.1227427009499</v>
       </c>
       <c r="CH48" s="10">
-        <f t="shared" si="141"/>
-        <v>6521.2852734005337</v>
+        <f t="shared" si="143"/>
+        <v>5321.1064249819783</v>
       </c>
       <c r="CI48" s="10">
-        <f t="shared" si="141"/>
-        <v>6749.5302579695517</v>
+        <f t="shared" si="143"/>
+        <v>5480.7396177314376</v>
       </c>
       <c r="CJ48" s="10">
-        <f t="shared" si="141"/>
-        <v>6985.7638169984857</v>
+        <f t="shared" si="143"/>
+        <v>5645.1618062633806</v>
       </c>
       <c r="CK48" s="10">
-        <f t="shared" si="141"/>
-        <v>7230.2655505934317</v>
+        <f t="shared" si="143"/>
+        <v>5814.5166604512824</v>
       </c>
       <c r="CL48" s="10">
-        <f t="shared" si="141"/>
-        <v>7483.3248448642016</v>
+        <f t="shared" si="143"/>
+        <v>5988.952160264821</v>
       </c>
       <c r="CM48" s="10">
-        <f t="shared" si="141"/>
-        <v>7745.241214434448</v>
+        <f t="shared" si="143"/>
+        <v>6168.6207250727657</v>
       </c>
       <c r="CN48" s="10">
-        <f t="shared" si="141"/>
-        <v>8016.3246569396533</v>
+        <f t="shared" si="143"/>
+        <v>6353.6793468249489</v>
       </c>
       <c r="CO48" s="10">
-        <f t="shared" si="141"/>
-        <v>8296.8960199325411</v>
+        <f t="shared" si="143"/>
+        <v>6544.2897272296977</v>
       </c>
       <c r="CP48" s="10">
-        <f t="shared" si="141"/>
-        <v>8587.2873806301795</v>
+        <f t="shared" si="143"/>
+        <v>6740.6184190465892</v>
       </c>
       <c r="CQ48" s="10">
-        <f t="shared" si="141"/>
-        <v>8887.8424389522352</v>
+        <f t="shared" si="143"/>
+        <v>6942.8369716179868</v>
       </c>
       <c r="CR48" s="10">
-        <f t="shared" si="141"/>
-        <v>9198.9169243155629</v>
+        <f t="shared" si="143"/>
+        <v>7151.1220807665268</v>
       </c>
       <c r="CS48" s="10">
-        <f t="shared" si="141"/>
-        <v>9520.8790166666076</v>
+        <f t="shared" si="143"/>
+        <v>7365.6557431895226</v>
       </c>
       <c r="CT48" s="10">
-        <f t="shared" si="141"/>
-        <v>9854.1097822499378</v>
+        <f t="shared" si="143"/>
+        <v>7586.6254154852086</v>
       </c>
       <c r="CU48" s="10">
-        <f t="shared" si="141"/>
-        <v>10199.003624628685</v>
+        <f t="shared" si="143"/>
+        <v>7814.2241779497654</v>
       </c>
       <c r="CV48" s="10">
-        <f t="shared" si="141"/>
-        <v>10555.968751490689</v>
+        <f t="shared" si="143"/>
+        <v>8048.6509032882586</v>
       </c>
       <c r="CW48" s="10">
-        <f t="shared" si="141"/>
-        <v>10925.427657792863</v>
+        <f t="shared" si="143"/>
+        <v>8290.110430386907</v>
       </c>
       <c r="CX48" s="10">
-        <f t="shared" si="141"/>
-        <v>11307.817625815613</v>
+        <f t="shared" si="143"/>
+        <v>8538.813743298515</v>
       </c>
       <c r="CY48" s="10">
-        <f t="shared" si="141"/>
-        <v>11703.591242719158</v>
+        <f t="shared" si="143"/>
+        <v>8794.9781555974714</v>
       </c>
       <c r="CZ48" s="10">
-        <f t="shared" si="141"/>
-        <v>12113.216936214327</v>
+        <f t="shared" si="143"/>
+        <v>9058.8275002653954</v>
       </c>
       <c r="DA48" s="10">
-        <f t="shared" si="141"/>
-        <v>12537.179528981827</v>
+        <f t="shared" si="143"/>
+        <v>9330.5923252733573</v>
       </c>
       <c r="DB48" s="10">
-        <f t="shared" si="141"/>
-        <v>12975.980812496191</v>
+        <f t="shared" si="143"/>
+        <v>9610.5100950315591</v>
       </c>
       <c r="DC48" s="10">
-        <f t="shared" si="141"/>
-        <v>13430.140140933556</v>
+        <f t="shared" si="143"/>
+        <v>9898.8253978825069</v>
       </c>
       <c r="DD48" s="10">
-        <f t="shared" si="141"/>
-        <v>13900.195045866229</v>
+        <f t="shared" si="143"/>
+        <v>10195.790159818982</v>
       </c>
       <c r="DE48" s="10">
-        <f t="shared" si="141"/>
-        <v>14386.701872471545</v>
+        <f t="shared" si="143"/>
+        <v>10501.663864613553</v>
       </c>
       <c r="DF48" s="10">
-        <f t="shared" ref="DF48:FQ48" si="142">DE48*(1+$AV$55)</f>
-        <v>14890.236438008049</v>
+        <f t="shared" ref="DF48:FQ48" si="144">DE48*(1+$AV$55)</f>
+        <v>10816.71378055196</v>
       </c>
       <c r="DG48" s="10">
-        <f t="shared" si="142"/>
-        <v>15411.39471333833</v>
+        <f t="shared" si="144"/>
+        <v>11141.215193968519</v>
       </c>
       <c r="DH48" s="10">
-        <f t="shared" si="142"/>
-        <v>15950.79352830517</v>
+        <f t="shared" si="144"/>
+        <v>11475.451649787576</v>
       </c>
       <c r="DI48" s="10">
-        <f t="shared" si="142"/>
-        <v>16509.071301795851</v>
+        <f t="shared" si="144"/>
+        <v>11819.715199281203</v>
       </c>
       <c r="DJ48" s="10">
-        <f t="shared" si="142"/>
-        <v>17086.888797358704</v>
+        <f t="shared" si="144"/>
+        <v>12174.306655259639</v>
       </c>
       <c r="DK48" s="10">
-        <f t="shared" si="142"/>
-        <v>17684.929905266257</v>
+        <f t="shared" si="144"/>
+        <v>12539.535854917429</v>
       </c>
       <c r="DL48" s="10">
-        <f t="shared" si="142"/>
-        <v>18303.902451950577</v>
+        <f t="shared" si="144"/>
+        <v>12915.721930564952</v>
       </c>
       <c r="DM48" s="10">
-        <f t="shared" si="142"/>
-        <v>18944.539037768845</v>
+        <f t="shared" si="144"/>
+        <v>13303.193588481901</v>
       </c>
       <c r="DN48" s="10">
-        <f t="shared" si="142"/>
-        <v>19607.597904090755</v>
+        <f t="shared" si="144"/>
+        <v>13702.289396136359</v>
       </c>
       <c r="DO48" s="10">
-        <f t="shared" si="142"/>
-        <v>20293.863830733932</v>
+        <f t="shared" si="144"/>
+        <v>14113.35807802045</v>
       </c>
       <c r="DP48" s="10">
-        <f t="shared" si="142"/>
-        <v>21004.149064809619</v>
+        <f t="shared" si="144"/>
+        <v>14536.758820361065</v>
       </c>
       <c r="DQ48" s="10">
-        <f t="shared" si="142"/>
-        <v>21739.294282077954</v>
+        <f t="shared" si="144"/>
+        <v>14972.861584971897</v>
       </c>
       <c r="DR48" s="10">
-        <f t="shared" si="142"/>
-        <v>22500.169581950679</v>
+        <f t="shared" si="144"/>
+        <v>15422.047432521054</v>
       </c>
       <c r="DS48" s="10">
-        <f t="shared" si="142"/>
-        <v>23287.675517318952</v>
+        <f t="shared" si="144"/>
+        <v>15884.708855496687</v>
       </c>
       <c r="DT48" s="10">
-        <f t="shared" si="142"/>
-        <v>24102.744160425114</v>
+        <f t="shared" si="144"/>
+        <v>16361.250121161587</v>
       </c>
       <c r="DU48" s="10">
-        <f t="shared" si="142"/>
-        <v>24946.340206039993</v>
+        <f t="shared" si="144"/>
+        <v>16852.087624796437</v>
       </c>
       <c r="DV48" s="10">
-        <f t="shared" si="142"/>
-        <v>25819.462113251389</v>
+        <f t="shared" si="144"/>
+        <v>17357.650253540331</v>
       </c>
       <c r="DW48" s="10">
-        <f t="shared" si="142"/>
-        <v>26723.143287215185</v>
+        <f t="shared" si="144"/>
+        <v>17878.379761146542</v>
       </c>
       <c r="DX48" s="10">
-        <f t="shared" si="142"/>
-        <v>27658.453302267713</v>
+        <f t="shared" si="144"/>
+        <v>18414.731153980938</v>
       </c>
       <c r="DY48" s="10">
-        <f t="shared" si="142"/>
-        <v>28626.49916784708</v>
+        <f t="shared" si="144"/>
+        <v>18967.173088600368</v>
       </c>
       <c r="DZ48" s="10">
-        <f t="shared" si="142"/>
-        <v>29628.426638721725</v>
+        <f t="shared" si="144"/>
+        <v>19536.188281258379</v>
       </c>
       <c r="EA48" s="10">
-        <f t="shared" si="142"/>
-        <v>30665.421571076982</v>
+        <f t="shared" si="144"/>
+        <v>20122.27392969613</v>
       </c>
       <c r="EB48" s="10">
-        <f t="shared" si="142"/>
-        <v>31738.711326064673</v>
+        <f t="shared" si="144"/>
+        <v>20725.942147587015</v>
       </c>
       <c r="EC48" s="10">
-        <f t="shared" si="142"/>
-        <v>32849.566222476933</v>
+        <f t="shared" si="144"/>
+        <v>21347.720412014627</v>
       </c>
       <c r="ED48" s="10">
-        <f t="shared" si="142"/>
-        <v>33999.301040263621</v>
+        <f t="shared" si="144"/>
+        <v>21988.152024375067</v>
       </c>
       <c r="EE48" s="10">
-        <f t="shared" si="142"/>
-        <v>35189.276576672848</v>
+        <f t="shared" si="144"/>
+        <v>22647.79658510632</v>
       </c>
       <c r="EF48" s="10">
-        <f t="shared" si="142"/>
-        <v>36420.901256856392</v>
+        <f t="shared" si="144"/>
+        <v>23327.23048265951</v>
       </c>
       <c r="EG48" s="10">
-        <f t="shared" si="142"/>
-        <v>37695.632800846361</v>
+        <f t="shared" si="144"/>
+        <v>24027.047397139297</v>
       </c>
       <c r="EH48" s="10">
-        <f t="shared" si="142"/>
-        <v>39014.979948875982</v>
+        <f t="shared" si="144"/>
+        <v>24747.858819053476</v>
       </c>
       <c r="EI48" s="10">
-        <f t="shared" si="142"/>
-        <v>40380.504247086639</v>
+        <f t="shared" si="144"/>
+        <v>25490.29458362508</v>
       </c>
       <c r="EJ48" s="10">
-        <f t="shared" si="142"/>
-        <v>41793.821895734669</v>
+        <f t="shared" si="144"/>
+        <v>26255.003421133832</v>
       </c>
       <c r="EK48" s="10">
-        <f t="shared" si="142"/>
-        <v>43256.605662085378</v>
+        <f t="shared" si="144"/>
+        <v>27042.653523767847</v>
       </c>
       <c r="EL48" s="10">
-        <f t="shared" si="142"/>
-        <v>44770.586860258365</v>
+        <f t="shared" si="144"/>
+        <v>27853.933129480884</v>
       </c>
       <c r="EM48" s="10">
-        <f t="shared" si="142"/>
-        <v>46337.557400367405</v>
+        <f t="shared" si="144"/>
+        <v>28689.551123365312</v>
       </c>
       <c r="EN48" s="10">
-        <f t="shared" si="142"/>
-        <v>47959.371909380257</v>
+        <f t="shared" si="144"/>
+        <v>29550.237657066271</v>
       </c>
       <c r="EO48" s="10">
-        <f t="shared" si="142"/>
-        <v>49637.949926208559</v>
+        <f t="shared" si="144"/>
+        <v>30436.744786778261</v>
       </c>
       <c r="EP48" s="10">
-        <f t="shared" si="142"/>
-        <v>51375.278173625855</v>
+        <f t="shared" si="144"/>
+        <v>31349.847130381611</v>
       </c>
       <c r="EQ48" s="10">
-        <f t="shared" si="142"/>
-        <v>53173.412909702754</v>
+        <f t="shared" si="144"/>
+        <v>32290.34254429306</v>
       </c>
       <c r="ER48" s="10">
-        <f t="shared" si="142"/>
-        <v>55034.482361542345</v>
+        <f t="shared" si="144"/>
+        <v>33259.052820621851</v>
       </c>
       <c r="ES48" s="10">
-        <f t="shared" si="142"/>
-        <v>56960.689244196321</v>
+        <f t="shared" si="144"/>
+        <v>34256.824405240506</v>
       </c>
       <c r="ET48" s="10">
-        <f t="shared" si="142"/>
-        <v>58954.313367743191</v>
+        <f t="shared" si="144"/>
+        <v>35284.529137397723</v>
       </c>
       <c r="EU48" s="10">
-        <f t="shared" si="142"/>
-        <v>61017.714335614197</v>
+        <f t="shared" si="144"/>
+        <v>36343.065011519655</v>
       </c>
       <c r="EV48" s="10">
-        <f t="shared" si="142"/>
-        <v>63153.334337360691</v>
+        <f t="shared" si="144"/>
+        <v>37433.356961865247</v>
       </c>
       <c r="EW48" s="10">
-        <f t="shared" si="142"/>
-        <v>65363.701039168307</v>
+        <f t="shared" si="144"/>
+        <v>38556.357670721205</v>
       </c>
       <c r="EX48" s="10">
-        <f t="shared" si="142"/>
-        <v>67651.430575539198</v>
+        <f t="shared" si="144"/>
+        <v>39713.048400842839</v>
       </c>
       <c r="EY48" s="10">
-        <f t="shared" si="142"/>
-        <v>70019.23064568307</v>
+        <f t="shared" si="144"/>
+        <v>40904.439852868127</v>
       </c>
       <c r="EZ48" s="10">
-        <f t="shared" si="142"/>
-        <v>72469.903718281974</v>
+        <f t="shared" si="144"/>
+        <v>42131.573048454171</v>
       </c>
       <c r="FA48" s="10">
-        <f t="shared" si="142"/>
-        <v>75006.350348421838</v>
+        <f t="shared" si="144"/>
+        <v>43395.520239907797</v>
       </c>
       <c r="FB48" s="10">
-        <f t="shared" si="142"/>
-        <v>77631.572610616597</v>
+        <f t="shared" si="144"/>
+        <v>44697.385847105033</v>
       </c>
       <c r="FC48" s="10">
-        <f t="shared" si="142"/>
-        <v>80348.677651988168</v>
+        <f t="shared" si="144"/>
+        <v>46038.307422518184</v>
       </c>
       <c r="FD48" s="10">
-        <f t="shared" si="142"/>
-        <v>83160.881369807743</v>
+        <f t="shared" si="144"/>
+        <v>47419.456645193728</v>
       </c>
       <c r="FE48" s="10">
-        <f t="shared" si="142"/>
-        <v>86071.512217751006</v>
+        <f t="shared" si="144"/>
+        <v>48842.040344549539</v>
       </c>
       <c r="FF48" s="10">
-        <f t="shared" si="142"/>
-        <v>89084.015145372279</v>
+        <f t="shared" si="144"/>
+        <v>50307.301554886028</v>
       </c>
       <c r="FG48" s="10">
-        <f t="shared" si="142"/>
-        <v>92201.955675460296</v>
+        <f t="shared" si="144"/>
+        <v>51816.520601532611</v>
       </c>
       <c r="FH48" s="10">
-        <f t="shared" si="142"/>
-        <v>95429.024124101401</v>
+        <f t="shared" si="144"/>
+        <v>53371.016219578589</v>
       </c>
       <c r="FI48" s="10">
-        <f t="shared" si="142"/>
-        <v>98769.039968444937</v>
+        <f t="shared" si="144"/>
+        <v>54972.14670616595</v>
       </c>
       <c r="FJ48" s="10">
-        <f t="shared" si="142"/>
-        <v>102225.95636734051</v>
+        <f t="shared" si="144"/>
+        <v>56621.311107350928</v>
       </c>
       <c r="FK48" s="10">
-        <f t="shared" si="142"/>
-        <v>105803.86484019742</v>
+        <f t="shared" si="144"/>
+        <v>58319.950440571454</v>
       </c>
       <c r="FL48" s="10">
-        <f t="shared" si="142"/>
-        <v>109507.00010960433</v>
+        <f t="shared" si="144"/>
+        <v>60069.548953788602</v>
       </c>
       <c r="FM48" s="10">
-        <f t="shared" si="142"/>
-        <v>113339.74511344047</v>
+        <f t="shared" si="144"/>
+        <v>61871.635422402265</v>
       </c>
       <c r="FN48" s="10">
-        <f t="shared" si="142"/>
-        <v>117306.63619241088</v>
+        <f t="shared" si="144"/>
+        <v>63727.784485074335</v>
       </c>
       <c r="FO48" s="10">
-        <f t="shared" si="142"/>
-        <v>121412.36845914525</v>
+        <f t="shared" si="144"/>
+        <v>65639.618019626563</v>
       </c>
       <c r="FP48" s="10">
-        <f t="shared" si="142"/>
-        <v>125661.80135521533</v>
+        <f t="shared" si="144"/>
+        <v>67608.806560215366</v>
       </c>
       <c r="FQ48" s="10">
-        <f t="shared" si="142"/>
-        <v>130059.96440264785</v>
+        <f t="shared" si="144"/>
+        <v>69637.070757021822</v>
       </c>
       <c r="FR48" s="10">
-        <f t="shared" ref="FR48:GC48" si="143">FQ48*(1+$AV$55)</f>
-        <v>134612.06315674051</v>
+        <f t="shared" ref="FR48:GC48" si="145">FQ48*(1+$AV$55)</f>
+        <v>71726.182879732485</v>
       </c>
       <c r="FS48" s="10">
-        <f t="shared" si="143"/>
-        <v>139323.48536722641</v>
+        <f t="shared" si="145"/>
+        <v>73877.968366124464</v>
       </c>
       <c r="FT48" s="10">
-        <f t="shared" si="143"/>
-        <v>144199.80735507933</v>
+        <f t="shared" si="145"/>
+        <v>76094.307417108197</v>
       </c>
       <c r="FU48" s="10">
-        <f t="shared" si="143"/>
-        <v>149246.8006125071</v>
+        <f t="shared" si="145"/>
+        <v>78377.136639621443</v>
       </c>
       <c r="FV48" s="10">
-        <f t="shared" si="143"/>
-        <v>154470.43863394484</v>
+        <f t="shared" si="145"/>
+        <v>80728.45073881009</v>
       </c>
       <c r="FW48" s="10">
-        <f t="shared" si="143"/>
-        <v>159876.90398613291</v>
+        <f t="shared" si="145"/>
+        <v>83150.304260974401</v>
       </c>
       <c r="FX48" s="10">
-        <f t="shared" si="143"/>
-        <v>165472.59562564755</v>
+        <f t="shared" si="145"/>
+        <v>85644.813388803639</v>
       </c>
       <c r="FY48" s="10">
-        <f t="shared" si="143"/>
-        <v>171264.13647254519</v>
+        <f t="shared" si="145"/>
+        <v>88214.157790467754</v>
       </c>
       <c r="FZ48" s="10">
-        <f t="shared" si="143"/>
-        <v>177258.38124908425</v>
+        <f t="shared" si="145"/>
+        <v>90860.582524181795</v>
       </c>
       <c r="GA48" s="10">
-        <f t="shared" si="143"/>
-        <v>183462.42459280218</v>
+        <f t="shared" si="145"/>
+        <v>93586.399999907255</v>
       </c>
       <c r="GB48" s="10">
-        <f t="shared" si="143"/>
-        <v>189883.60945355025</v>
+        <f t="shared" si="145"/>
+        <v>96393.99199990448</v>
       </c>
       <c r="GC48" s="10">
-        <f t="shared" si="143"/>
-        <v>196529.53578442449</v>
-      </c>
-    </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.45">
+        <f t="shared" si="145"/>
+        <v>99285.811759901611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
         <v>34</v>
@@ -5692,55 +5680,55 @@
         <v>1.2067539747071951</v>
       </c>
       <c r="E49" s="11">
-        <f t="shared" ref="E49:G49" si="144">E48/E50</f>
+        <f t="shared" ref="E49:G49" si="146">E48/E50</f>
         <v>1.8604417292051612</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>1.4364987959376014</v>
       </c>
       <c r="G49" s="11">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>1.7307674589048212</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" ref="H49:I49" si="145">H48/H50</f>
+        <f t="shared" ref="H49:I49" si="147">H48/H50</f>
         <v>1.5788548909360178</v>
       </c>
       <c r="I49" s="11">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>1.5503006581863468</v>
       </c>
       <c r="J49" s="11">
-        <f t="shared" ref="J49:L49" si="146">J48/J50</f>
+        <f t="shared" ref="J49:L49" si="148">J48/J50</f>
         <v>1.7608450209498929</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>1.8917630529141694</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>-0.9898303100250001</v>
       </c>
       <c r="M49" s="11">
-        <f t="shared" ref="M49:O49" si="147">M48/M50</f>
+        <f t="shared" ref="M49:O49" si="149">M48/M50</f>
         <v>3.245168142777104</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>4.4333492234739218</v>
       </c>
       <c r="O49" s="11">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>5.6568649588947109</v>
       </c>
       <c r="P49" s="11">
-        <f t="shared" ref="P49:Q49" si="148">P48/P50</f>
+        <f t="shared" ref="P49:Q49" si="150">P48/P50</f>
         <v>5.5784494892703487</v>
       </c>
       <c r="Q49" s="11">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>5.5709178123387249</v>
       </c>
       <c r="R49" s="11">
@@ -5748,19 +5736,19 @@
         <v>6.1938161783269186</v>
       </c>
       <c r="S49" s="11">
-        <f t="shared" ref="S49:V49" si="149">S48/S50</f>
+        <f t="shared" ref="S49:V49" si="151">S48/S50</f>
         <v>6.4675298730638424</v>
       </c>
       <c r="T49" s="11">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>6.7255679455574189</v>
       </c>
       <c r="U49" s="11">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>7.5751268340585405</v>
       </c>
       <c r="V49" s="11">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>8.254111748555772</v>
       </c>
       <c r="Z49" s="11">
@@ -5772,11 +5760,11 @@
         <v>2.3890814558058904</v>
       </c>
       <c r="AB49" s="11">
-        <f t="shared" ref="AB49:AC49" si="150">AB48/AB50</f>
+        <f t="shared" ref="AB49:AC49" si="152">AB48/AB50</f>
         <v>-12.695112866621626</v>
       </c>
       <c r="AC49" s="11">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>-1.9440957764523719</v>
       </c>
       <c r="AD49" s="11">
@@ -5788,59 +5776,59 @@
         <v>-1.6034873285183178</v>
       </c>
       <c r="AF49" s="11">
-        <f t="shared" ref="AF49:AH49" si="151">AF48/AF50</f>
+        <f t="shared" ref="AF49:AH49" si="153">AF48/AF50</f>
         <v>6.5074307315318931</v>
       </c>
       <c r="AG49" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>11.261953129823867</v>
       </c>
       <c r="AH49" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>22.054850973461882</v>
       </c>
       <c r="AI49" s="11">
-        <f t="shared" ref="AI49" si="152">AI48/AI50</f>
+        <f t="shared" ref="AI49" si="154">AI48/AI50</f>
         <v>29.022336401235574</v>
       </c>
       <c r="AJ49" s="11">
-        <f t="shared" ref="AJ49" si="153">AJ48/AJ50</f>
+        <f t="shared" ref="AJ49" si="155">AJ48/AJ50</f>
         <v>50.722762724102893</v>
       </c>
       <c r="AK49" s="11">
-        <f t="shared" ref="AK49" si="154">AK48/AK50</f>
+        <f t="shared" ref="AK49" si="156">AK48/AK50</f>
         <v>57.440857126710476</v>
       </c>
       <c r="AL49" s="11">
-        <f t="shared" ref="AL49" si="155">AL48/AL50</f>
+        <f t="shared" ref="AL49" si="157">AL48/AL50</f>
         <v>66.438593917855215</v>
       </c>
       <c r="AM49" s="11">
-        <f t="shared" ref="AM49" si="156">AM48/AM50</f>
+        <f t="shared" ref="AM49" si="158">AM48/AM50</f>
         <v>71.711440590120333</v>
       </c>
       <c r="AN49" s="11">
-        <f t="shared" ref="AN49" si="157">AN48/AN50</f>
+        <f t="shared" ref="AN49" si="159">AN48/AN50</f>
         <v>64.289618478769256</v>
       </c>
       <c r="AO49" s="11">
-        <f t="shared" ref="AO49" si="158">AO48/AO50</f>
+        <f t="shared" ref="AO49" si="160">AO48/AO50</f>
         <v>85.102559309723773</v>
       </c>
       <c r="AP49" s="11">
-        <f t="shared" ref="AP49" si="159">AP48/AP50</f>
+        <f t="shared" ref="AP49" si="161">AP48/AP50</f>
         <v>98.832091655815859</v>
       </c>
       <c r="AQ49" s="11">
-        <f t="shared" ref="AQ49" si="160">AQ48/AQ50</f>
+        <f t="shared" ref="AQ49" si="162">AQ48/AQ50</f>
         <v>103.13350564789347</v>
       </c>
       <c r="AR49" s="11">
-        <f t="shared" ref="AR49" si="161">AR48/AR50</f>
+        <f t="shared" ref="AR49" si="163">AR48/AR50</f>
         <v>114.1707221546655</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="s">
         <v>5</v>
@@ -5870,31 +5858,31 @@
         <v>11.951700000000001</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" ref="I50:O50" si="162">23.9142/2</f>
+        <f t="shared" ref="I50:O50" si="164">23.9142/2</f>
         <v>11.957100000000001</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11.957100000000001</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11.957100000000001</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11.957100000000001</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11.957100000000001</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11.957100000000001</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11.957100000000001</v>
       </c>
       <c r="P50" s="3">
@@ -5918,11 +5906,11 @@
         <v>13.4674</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" ref="U50:V50" si="163">T50</f>
+        <f t="shared" ref="U50:V50" si="165">T50</f>
         <v>13.4674</v>
       </c>
       <c r="V50" s="3">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>13.4674</v>
       </c>
       <c r="Z50" s="3">
@@ -5960,43 +5948,43 @@
         <v>13.4674</v>
       </c>
       <c r="AJ50" s="3">
-        <f t="shared" ref="AJ50:AR50" si="164">AI50</f>
+        <f t="shared" ref="AJ50:AR50" si="166">AI50</f>
         <v>13.4674</v>
       </c>
       <c r="AK50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AL50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AM50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AN50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AO50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AP50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AQ50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
       <c r="AR50" s="3">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>13.4674</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="5" t="s">
         <v>41</v>
@@ -6006,31 +5994,31 @@
         <v>1.4662555444269563</v>
       </c>
       <c r="H52" s="12">
-        <f t="shared" ref="H52:L52" si="165">H34/D34-1</f>
+        <f t="shared" ref="H52:L52" si="167">H34/D34-1</f>
         <v>0.16359286634495707</v>
       </c>
       <c r="I52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0.16792949549169212</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0.55743121285494124</v>
       </c>
       <c r="K52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0.26729888505081623</v>
       </c>
       <c r="L52" s="12">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>0.82502419000146632</v>
       </c>
       <c r="M52" s="12">
-        <f t="shared" ref="M52" si="166">M34/I34-1</f>
+        <f t="shared" ref="M52" si="168">M34/I34-1</f>
         <v>1.0058058787427018</v>
       </c>
       <c r="N52" s="12">
-        <f t="shared" ref="N52" si="167">N34/J34-1</f>
+        <f t="shared" ref="N52" si="169">N34/J34-1</f>
         <v>1.3144159372625288</v>
       </c>
       <c r="O52" s="12">
@@ -6038,31 +6026,31 @@
         <v>1.106845586888848</v>
       </c>
       <c r="P52" s="12">
-        <f t="shared" ref="P52" si="168">P34/L34-1</f>
+        <f t="shared" ref="P52" si="170">P34/L34-1</f>
         <v>0.5137927571938441</v>
       </c>
       <c r="Q52" s="12">
-        <f t="shared" ref="Q52" si="169">Q34/M34-1</f>
+        <f t="shared" ref="Q52" si="171">Q34/M34-1</f>
         <v>0.24755278674141001</v>
       </c>
       <c r="R52" s="12">
-        <f t="shared" ref="R52" si="170">R34/N34-1</f>
+        <f t="shared" ref="R52" si="172">R34/N34-1</f>
         <v>8.6134572451735281E-2</v>
       </c>
       <c r="S52" s="12">
-        <f t="shared" ref="S52" si="171">S34/O34-1</f>
+        <f t="shared" ref="S52" si="173">S34/O34-1</f>
         <v>0.10266865137243797</v>
       </c>
       <c r="T52" s="12">
-        <f t="shared" ref="T52" si="172">T34/P34-1</f>
+        <f t="shared" ref="T52" si="174">T34/P34-1</f>
         <v>0.13388534248362149</v>
       </c>
       <c r="U52" s="12">
-        <f t="shared" ref="U52" si="173">U34/Q34-1</f>
+        <f t="shared" ref="U52" si="175">U34/Q34-1</f>
         <v>0.15323464606804893</v>
       </c>
       <c r="V52" s="12">
-        <f t="shared" ref="V52" si="174">V34/R34-1</f>
+        <f t="shared" ref="V52" si="176">V34/R34-1</f>
         <v>0.20775247480218462</v>
       </c>
       <c r="AA52" s="12">
@@ -6070,75 +6058,75 @@
         <v>0.74097850595197068</v>
       </c>
       <c r="AB52" s="12">
-        <f t="shared" ref="AB52:AR52" si="175">AB34/AA34-1</f>
+        <f t="shared" ref="AB52:AR52" si="177">AB34/AA34-1</f>
         <v>-0.26404967791922818</v>
       </c>
       <c r="AC52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.35566740951356324</v>
       </c>
       <c r="AD52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>2.0525698219518995E-2</v>
       </c>
       <c r="AE52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>-0.14156214937178524</v>
       </c>
       <c r="AF52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>-3.8991122499158815E-2</v>
       </c>
       <c r="AG52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.90016994115349913</v>
       </c>
       <c r="AH52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.38154974625203364</v>
       </c>
       <c r="AI52" s="12">
-        <f t="shared" ref="AI52" si="176">AI34/AH34-1</f>
+        <f t="shared" ref="AI52" si="178">AI34/AH34-1</f>
         <v>0.42919840753791094</v>
       </c>
       <c r="AJ52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.14099913690620491</v>
       </c>
       <c r="AK52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>7.6174168702264122E-2</v>
       </c>
       <c r="AL52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.13832565980947775</v>
       </c>
       <c r="AM52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>5.8407087516950895E-2</v>
       </c>
       <c r="AN52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>-5.6711116330567246E-2</v>
       </c>
       <c r="AO52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.18530768424581234</v>
       </c>
       <c r="AP52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>9.9796504165122091E-2</v>
       </c>
       <c r="AQ52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>6.7514904226172234E-2</v>
       </c>
       <c r="AR52" s="12">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>6.9082697184152497E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="s">
         <v>42</v>
@@ -6148,63 +6136,63 @@
         <v>0.2759336099585063</v>
       </c>
       <c r="D53" s="12">
-        <f t="shared" ref="D53:R53" si="177">D36/D34</f>
+        <f t="shared" ref="D53:R53" si="179">D36/D34</f>
         <v>0.34800587374718867</v>
       </c>
       <c r="E53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.27848979222580733</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.31715459681561387</v>
       </c>
       <c r="G53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.31735614672448131</v>
       </c>
       <c r="H53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.32892537751062895</v>
       </c>
       <c r="I53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.26614477619377985</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.28065417174882207</v>
       </c>
       <c r="K53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.17620399194286765</v>
       </c>
       <c r="L53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.25001345544720693</v>
       </c>
       <c r="M53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.25162465301860309</v>
       </c>
       <c r="N53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.23364815096590272</v>
       </c>
       <c r="O53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.21051885367271059</v>
       </c>
       <c r="P53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.27869417569134736</v>
       </c>
       <c r="Q53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.23779779114203289</v>
       </c>
       <c r="R53" s="12">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.24408155883488444</v>
       </c>
       <c r="S53" s="12">
@@ -6224,35 +6212,35 @@
         <v>0.44991778502013535</v>
       </c>
       <c r="AA53" s="12">
-        <f t="shared" ref="AA53:AH53" si="178">AA36/AA34</f>
+        <f t="shared" ref="AA53:AH53" si="180">AA36/AA34</f>
         <v>0.48241422019126901</v>
       </c>
       <c r="AB53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.46793975255513715</v>
       </c>
       <c r="AC53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.37731346329352139</v>
       </c>
       <c r="AD53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.3377417598897986</v>
       </c>
       <c r="AE53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.32340761446282057</v>
       </c>
       <c r="AF53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.30161861542397761</v>
       </c>
       <c r="AG53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.23275362820047996</v>
       </c>
       <c r="AH53" s="12">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.24296085672704038</v>
       </c>
       <c r="AI53" s="12">
@@ -6286,7 +6274,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="5" t="s">
         <v>47</v>
@@ -6296,56 +6284,56 @@
         <v>0.27756488597054502</v>
       </c>
       <c r="E54" s="12">
-        <f t="shared" ref="E54:R54" si="179">E47/E46</f>
+        <f t="shared" ref="E54:R54" si="181">E47/E46</f>
         <v>0.23658872077028914</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.1654501216545009</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.26864213611201626</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.27058368766911478</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.28198364649786417</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.22889915984852399</v>
       </c>
       <c r="K54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.20211640211640203</v>
       </c>
       <c r="L54" s="12"/>
       <c r="M54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.29027231091145811</v>
       </c>
       <c r="N54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.29481252868440816</v>
       </c>
       <c r="O54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.24936272121647293</v>
       </c>
       <c r="P54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.25270799954072254</v>
       </c>
       <c r="Q54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.25058060262806986</v>
       </c>
       <c r="R54" s="12">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.25520883092717428</v>
       </c>
       <c r="S54" s="12">
@@ -6362,33 +6350,33 @@
       </c>
       <c r="Z54" s="12"/>
       <c r="AA54" s="12">
-        <f t="shared" ref="AA54:AH54" si="180">AA47/AA46</f>
+        <f t="shared" ref="AA54:AH54" si="182">AA47/AA46</f>
         <v>0.44671884406983769</v>
       </c>
       <c r="AB54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.11975975975975975</v>
       </c>
       <c r="AC54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.59475260745605951</v>
       </c>
       <c r="AD54" s="12"/>
       <c r="AE54" s="12"/>
       <c r="AF54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.27280373831775701</v>
       </c>
       <c r="AG54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.2917098848939938</v>
       </c>
       <c r="AH54" s="12">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.25211796443763562</v>
       </c>
       <c r="AI54" s="12">
-        <f t="shared" ref="AI54" si="181">AI47/AI46</f>
+        <f t="shared" ref="AI54" si="183">AI47/AI46</f>
         <v>0.25</v>
       </c>
       <c r="AJ54" s="12">
@@ -6419,7 +6407,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="5" t="s">
         <v>117</v>
@@ -6432,47 +6420,47 @@
         <v>0.3945371775417299</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" ref="H55:R55" si="182">H38/D38-1</f>
+        <f t="shared" ref="H55:R55" si="184">H38/D38-1</f>
         <v>0.58507462686567147</v>
       </c>
       <c r="I55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.86453576864535764</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.48199767711962838</v>
       </c>
       <c r="K55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.33841131664853119</v>
       </c>
       <c r="L55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.22598870056497189</v>
       </c>
       <c r="M55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.15673469387755112</v>
       </c>
       <c r="N55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.32415360501567414</v>
       </c>
       <c r="O55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.28455284552845517</v>
       </c>
       <c r="P55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.32642089093701987</v>
       </c>
       <c r="Q55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>6.3260409315455179E-2</v>
       </c>
       <c r="R55" s="12">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>7.379174015459089E-2</v>
       </c>
       <c r="S55" s="12">
@@ -6492,31 +6480,31 @@
         <v>0.26155218554861714</v>
       </c>
       <c r="AB55" s="12">
-        <f t="shared" ref="AB55:AH55" si="183">AB38/AA38-1</f>
+        <f t="shared" ref="AB55:AH55" si="185">AB38/AA38-1</f>
         <v>0.12817611841795129</v>
       </c>
       <c r="AC55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>-5.9627277285642544E-2</v>
       </c>
       <c r="AD55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>-0.32561652966007548</v>
       </c>
       <c r="AE55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>0.38736245634842192</v>
       </c>
       <c r="AF55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>-0.78428951367781152</v>
       </c>
       <c r="AG55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>0.24438573315719947</v>
       </c>
       <c r="AH55" s="12">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>0.17267162066525144</v>
       </c>
       <c r="AI55" s="12">
@@ -6553,10 +6541,10 @@
         <v>140</v>
       </c>
       <c r="AV55" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.45">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="5" t="s">
         <v>116</v>
@@ -6569,47 +6557,47 @@
         <v>-0.28388746803069065</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" ref="H56:R56" si="184">H39/D39-1</f>
+        <f t="shared" ref="H56:R56" si="186">H39/D39-1</f>
         <v>-0.19119496855345919</v>
       </c>
       <c r="I56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.37067545304777583</v>
       </c>
       <c r="J56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.39945897204688907</v>
       </c>
       <c r="K56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.34642857142857153</v>
       </c>
       <c r="L56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.54665629860031117</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.38461538461538458</v>
       </c>
       <c r="N56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.43360180412371152</v>
       </c>
       <c r="O56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>0.26657824933687002</v>
       </c>
       <c r="P56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>1.9607843137254832E-2</v>
       </c>
       <c r="Q56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>-0.20856336805555553</v>
       </c>
       <c r="R56" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>-0.28834355828220859</v>
       </c>
       <c r="S56" s="12">
@@ -6630,31 +6618,31 @@
         <v>0.81134259259259256</v>
       </c>
       <c r="AB56" s="12">
-        <f t="shared" ref="AB56:AH56" si="185">AB39/AA39-1</f>
+        <f t="shared" ref="AB56:AH56" si="187">AB39/AA39-1</f>
         <v>0.40734824281150139</v>
       </c>
       <c r="AC56" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>0.55228149829738937</v>
       </c>
       <c r="AD56" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>0.29091228172804118</v>
       </c>
       <c r="AE56" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>-8.0208451342471898E-2</v>
       </c>
       <c r="AF56" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>-0.29474073161719427</v>
       </c>
       <c r="AG56" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>0.4100593782745372</v>
       </c>
       <c r="AH56" s="12">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>-9.0305920237800263E-2</v>
       </c>
       <c r="AI56" s="12">
@@ -6694,7 +6682,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="5" t="s">
         <v>118</v>
@@ -6704,63 +6692,63 @@
         <v>2.711403634282444E-2</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" ref="D57:R57" si="186">D40/D34</f>
+        <f t="shared" ref="D57:R57" si="188">D40/D34</f>
         <v>1.2623643470096296E-2</v>
       </c>
       <c r="E57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>1.1278308856789604E-2</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>1.6472228336635114E-2</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>1.1806231601714023E-2</v>
       </c>
-      <c r="H57" s="17">
-        <f t="shared" si="186"/>
+      <c r="H57" s="12">
+        <f t="shared" si="188"/>
         <v>1.1142061281337046E-2</v>
       </c>
       <c r="I57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>1.278088578509883E-2</v>
       </c>
       <c r="J57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>1.3073447333794085E-2</v>
       </c>
       <c r="K57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>1.236037355795642E-2</v>
       </c>
       <c r="L57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>8.5150889786632742E-3</v>
       </c>
       <c r="M57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>6.964085912877096E-3</v>
       </c>
       <c r="N57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>6.4908172960220405E-3</v>
       </c>
       <c r="O57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>7.2030869627711224E-3</v>
       </c>
       <c r="P57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>7.0896265709015195E-3</v>
       </c>
       <c r="Q57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>7.0085984412771411E-3</v>
       </c>
       <c r="R57" s="12">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>6.5461844378891191E-3</v>
       </c>
       <c r="S57" s="12">
@@ -6780,39 +6768,39 @@
         <v>4.520346976753345E-2</v>
       </c>
       <c r="AA57" s="12">
-        <f t="shared" ref="AA57:AH57" si="187">AA40/AA34</f>
+        <f t="shared" ref="AA57:AH57" si="189">AA40/AA34</f>
         <v>2.9137140239453907E-2</v>
       </c>
       <c r="AB57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>3.9060939060939062E-2</v>
       </c>
       <c r="AC57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>2.0486018604071132E-2</v>
       </c>
       <c r="AD57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>1.6174722552406769E-2</v>
       </c>
       <c r="AE57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>1.9320858244687735E-2</v>
       </c>
       <c r="AF57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>1.2375271003622358E-2</v>
       </c>
       <c r="AG57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>7.9725873391627948E-3</v>
       </c>
       <c r="AH57" s="12">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>6.9475293056974448E-3</v>
       </c>
       <c r="AI57" s="12">
-        <f t="shared" ref="AI57" si="188">AI40/AI34</f>
+        <f t="shared" ref="AI57" si="190">AI40/AI34</f>
         <v>8.0572656306079973E-3</v>
       </c>
       <c r="AJ57" s="12">
@@ -6846,10 +6834,10 @@
         <v>142</v>
       </c>
       <c r="AV57" s="12">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="5" t="s">
         <v>119</v>
@@ -6862,47 +6850,47 @@
         <v>1.0421626984126986</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" ref="H58:R58" si="189">H41/D41-1</f>
+        <f t="shared" ref="H58:R58" si="191">H41/D41-1</f>
         <v>0.29194630872483218</v>
       </c>
       <c r="I58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.19930069930069938</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.43278249218401066</v>
       </c>
       <c r="K58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.3376244838474618</v>
       </c>
       <c r="L58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.31768231768231781</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.4211856171039845</v>
       </c>
       <c r="N58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.78389962593516227</v>
       </c>
       <c r="O58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.39477029235518435</v>
       </c>
       <c r="P58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.23760424564063687</v>
       </c>
       <c r="Q58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.11931892778993425</v>
       </c>
       <c r="R58" s="12">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>-6.7623957013673408E-2</v>
       </c>
       <c r="S58" s="12">
@@ -6918,35 +6906,35 @@
         <v>0.05</v>
       </c>
       <c r="AA58" s="12">
-        <f t="shared" ref="AA58:AH58" si="190">AA41/Z41-1</f>
+        <f t="shared" ref="AA58:AH58" si="192">AA41/Z41-1</f>
         <v>0.52561420578934537</v>
       </c>
       <c r="AB58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.17468669281545979</v>
       </c>
       <c r="AC58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>7.6879224692564474E-2</v>
       </c>
       <c r="AD58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>-0.1375633366104515</v>
       </c>
       <c r="AE58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>-0.3101543318133988</v>
       </c>
       <c r="AF58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>-0.11194440913520609</v>
       </c>
       <c r="AG58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.47731284889546255</v>
       </c>
       <c r="AH58" s="12">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.120659173852663</v>
       </c>
       <c r="AI58" s="12">
@@ -6984,28 +6972,28 @@
       </c>
       <c r="AV58" s="3">
         <f>NPV(AV57,AI48:GC48)-Main!J8+Main!J7</f>
-        <v>7502.0703377607078</v>
-      </c>
-    </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.45">
+        <v>27041.7905184425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="AU59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AV59" s="20">
+      <c r="AV59" s="14">
         <f>AV58/Main!J5</f>
-        <v>557.05409639282323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.45">
+        <v>2007.9444078621339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="AU60" s="3" t="s">
         <v>144</v>
       </c>
       <c r="AV60" s="12">
         <f>AV59/Main!J4-1</f>
-        <v>-0.6276749681563859</v>
-      </c>
-    </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.45">
+        <v>0.37248421590029657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="5" t="s">
         <v>58</v>
@@ -7023,49 +7011,49 @@
         <v>832.15541325000004</v>
       </c>
       <c r="AJ61" s="3">
-        <f t="shared" ref="AJ61:AR61" si="191">AI61+AJ48</f>
+        <f t="shared" ref="AJ61:AR61" si="193">AI61+AJ48</f>
         <v>1515.2591479605833</v>
       </c>
       <c r="AK61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>2288.8381472288438</v>
       </c>
       <c r="AL61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>3183.5932669581671</v>
       </c>
       <c r="AM61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>4149.3599219615535</v>
       </c>
       <c r="AN61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>5015.1739298625307</v>
       </c>
       <c r="AO61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>6161.2841371103041</v>
       </c>
       <c r="AP61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>7492.2954482758387</v>
       </c>
       <c r="AQ61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>8881.2356222382787</v>
       </c>
       <c r="AR61" s="3">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>10418.818405784021</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="5" t="s">
         <v>54</v>
@@ -7074,11 +7062,11 @@
         <v>647.66999999999996</v>
       </c>
       <c r="AH63" s="3">
-        <f>R63</f>
+        <f t="shared" ref="AH63:AH76" si="194">R63</f>
         <v>647.66999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="5" t="s">
         <v>55</v>
@@ -7087,11 +7075,11 @@
         <v>90.69</v>
       </c>
       <c r="AH64" s="3">
-        <f>R64</f>
+        <f t="shared" si="194"/>
         <v>90.69</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="5" t="s">
         <v>56</v>
@@ -7100,11 +7088,11 @@
         <v>107.8</v>
       </c>
       <c r="AH65" s="3">
-        <f>R65</f>
+        <f t="shared" si="194"/>
         <v>107.8</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="5" t="s">
         <v>59</v>
@@ -7114,11 +7102,11 @@
         <v>68.570000000000007</v>
       </c>
       <c r="AH66" s="3">
-        <f>R66</f>
+        <f t="shared" si="194"/>
         <v>68.570000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="5" t="s">
         <v>60</v>
@@ -7128,25 +7116,25 @@
         <v>221.14000000000001</v>
       </c>
       <c r="AH67" s="3">
-        <f>R67</f>
+        <f t="shared" si="194"/>
         <v>221.14000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="R68" s="13">
+      <c r="R68" s="3">
         <f>52.85+13.13</f>
         <v>65.98</v>
       </c>
       <c r="AH68" s="3">
-        <f>R68</f>
+        <f t="shared" si="194"/>
         <v>65.98</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="5" t="s">
         <v>62</v>
@@ -7156,11 +7144,11 @@
         <v>102</v>
       </c>
       <c r="AH69" s="3">
-        <f>R69</f>
+        <f t="shared" si="194"/>
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="5" t="s">
         <v>63</v>
@@ -7170,11 +7158,11 @@
         <v>34.450000000000003</v>
       </c>
       <c r="AH70" s="3">
-        <f>R70</f>
+        <f t="shared" si="194"/>
         <v>34.450000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="5" t="s">
         <v>64</v>
@@ -7183,11 +7171,11 @@
         <v>21.92</v>
       </c>
       <c r="AH71" s="3">
-        <f>R71</f>
+        <f t="shared" si="194"/>
         <v>21.92</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="5" t="s">
         <v>65</v>
@@ -7196,11 +7184,11 @@
         <v>523.72</v>
       </c>
       <c r="AH72" s="3">
-        <f>R72</f>
+        <f t="shared" si="194"/>
         <v>523.72</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="5" t="s">
         <v>66</v>
@@ -7210,11 +7198,11 @@
         <v>532.25199999999995</v>
       </c>
       <c r="AH73" s="3">
-        <f>R73</f>
+        <f t="shared" si="194"/>
         <v>532.25199999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="5" t="s">
         <v>67</v>
@@ -7224,11 +7212,11 @@
         <v>606.99</v>
       </c>
       <c r="AH74" s="3">
-        <f>R74</f>
+        <f t="shared" si="194"/>
         <v>606.99</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="5" t="s">
         <v>68</v>
@@ -7237,11 +7225,11 @@
         <v>202.75</v>
       </c>
       <c r="AH75" s="3">
-        <f>R75</f>
+        <f t="shared" si="194"/>
         <v>202.75</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="7" t="s">
         <v>69</v>
@@ -7251,11 +7239,11 @@
         <v>3225.9319999999998</v>
       </c>
       <c r="AH76" s="10">
-        <f>R76</f>
+        <f t="shared" si="194"/>
         <v>3225.9319999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="5" t="s">
         <v>71</v>
@@ -7265,11 +7253,11 @@
         <v>66.240000000000009</v>
       </c>
       <c r="AH78" s="3">
-        <f>R78</f>
+        <f t="shared" ref="AH78:AH88" si="195">R78</f>
         <v>66.240000000000009</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="5" t="s">
         <v>70</v>
@@ -7279,11 +7267,11 @@
         <v>99.45</v>
       </c>
       <c r="AH79" s="3">
-        <f>R79</f>
+        <f t="shared" si="195"/>
         <v>99.45</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="5" t="s">
         <v>72</v>
@@ -7293,11 +7281,11 @@
         <v>438.35</v>
       </c>
       <c r="AH80" s="3">
-        <f>R80</f>
+        <f t="shared" si="195"/>
         <v>438.35</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="5" t="s">
         <v>73</v>
@@ -7307,11 +7295,11 @@
         <v>20.25</v>
       </c>
       <c r="AH81" s="3">
-        <f>R81</f>
+        <f t="shared" si="195"/>
         <v>20.25</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="5" t="s">
         <v>76</v>
@@ -7321,11 +7309,11 @@
         <v>24.060000000000002</v>
       </c>
       <c r="AH82" s="3">
-        <f>R82</f>
+        <f t="shared" si="195"/>
         <v>24.060000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="5" t="s">
         <v>74</v>
@@ -7335,11 +7323,11 @@
         <v>319.44</v>
       </c>
       <c r="AH83" s="3">
-        <f>R83</f>
+        <f t="shared" si="195"/>
         <v>319.44</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="5" t="s">
         <v>75</v>
@@ -7348,11 +7336,11 @@
         <v>26.23</v>
       </c>
       <c r="AH84" s="3">
-        <f>R84</f>
+        <f t="shared" si="195"/>
         <v>26.23</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="5" t="s">
         <v>77</v>
@@ -7361,11 +7349,11 @@
         <v>3.99</v>
       </c>
       <c r="AH85" s="3">
-        <f>R85</f>
+        <f t="shared" si="195"/>
         <v>3.99</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="6" t="s">
         <v>78</v>
@@ -7375,11 +7363,11 @@
         <v>998.01</v>
       </c>
       <c r="AH86" s="9">
-        <f>R86</f>
+        <f t="shared" si="195"/>
         <v>998.01</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="5" t="s">
         <v>79</v>
@@ -7388,11 +7376,11 @@
         <v>2228.1999999999998</v>
       </c>
       <c r="AH87" s="3">
-        <f>R87</f>
+        <f t="shared" si="195"/>
         <v>2228.1999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="7" t="s">
         <v>80</v>
@@ -7402,11 +7390,11 @@
         <v>3226.21</v>
       </c>
       <c r="AH88" s="10">
-        <f>R88</f>
+        <f t="shared" si="195"/>
         <v>3226.21</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="5" t="s">
         <v>81</v>
@@ -7416,63 +7404,63 @@
         <v>-3.039999999999992</v>
       </c>
       <c r="D91" s="3">
-        <f t="shared" ref="D91:R91" si="192">D48</f>
+        <f t="shared" ref="D91:R91" si="196">D48</f>
         <v>13.950800000000001</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>22.199999999999967</v>
       </c>
       <c r="F91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>17.150000000000041</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>20.663199999999936</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>18.870000000000005</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>18.537099999999967</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>21.054599999999965</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>22.620000000000015</v>
       </c>
       <c r="L91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>-11.835499999999929</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>38.802800000000111</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>53.010000000000034</v>
       </c>
       <c r="O91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>67.639699999999948</v>
       </c>
       <c r="P91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>70.941699999999955</v>
       </c>
       <c r="Q91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>75.025499999999923</v>
       </c>
       <c r="R91" s="3">
-        <f t="shared" si="192"/>
+        <f t="shared" si="196"/>
         <v>83.414599999999936</v>
       </c>
       <c r="AE91" s="3">
@@ -7480,19 +7468,19 @@
         <v>-18.760000000000058</v>
       </c>
       <c r="AF91" s="3">
-        <f t="shared" ref="AF91:AH91" si="193">AF48</f>
+        <f t="shared" ref="AF91:AH91" si="197">AF48</f>
         <v>77.81</v>
       </c>
       <c r="AG91" s="3">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>134.66039999999981</v>
       </c>
       <c r="AH91" s="3">
-        <f t="shared" si="193"/>
+        <f t="shared" si="197"/>
         <v>297.02150000000051</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="5" t="s">
         <v>82</v>
@@ -7550,25 +7538,25 @@
         <v>-18.760000000000058</v>
       </c>
       <c r="AF92" s="3">
-        <f t="shared" ref="AF92:AH92" si="194">AF91</f>
+        <f t="shared" ref="AF92:AH92" si="198">AF91</f>
         <v>77.81</v>
       </c>
       <c r="AG92" s="3">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>134.66039999999981</v>
       </c>
       <c r="AH92" s="3">
-        <f t="shared" si="194"/>
+        <f t="shared" si="198"/>
         <v>297.02150000000051</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="5" t="s">
         <v>31</v>
@@ -7578,63 +7566,63 @@
         <v>-4.4546999999999999</v>
       </c>
       <c r="D95" s="3">
-        <f t="shared" ref="D95:R95" si="195">D92+D47</f>
+        <f t="shared" ref="D95:R95" si="199">D92+D47</f>
         <v>19.300599999999999</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>29.0778</v>
       </c>
       <c r="F95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>20.561899999999998</v>
       </c>
       <c r="G95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>28.2333</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>25.847300000000001</v>
       </c>
       <c r="I95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>25.7987</v>
       </c>
       <c r="J95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>33.549199999999999</v>
       </c>
       <c r="K95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>28.363800000000001</v>
       </c>
       <c r="L95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>-0.18640000000000079</v>
       </c>
       <c r="M95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>55.098399999999998</v>
       </c>
       <c r="N95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>75.168899999999994</v>
       </c>
       <c r="O95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>90.041899999999998</v>
       </c>
       <c r="P95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>94.884799999999998</v>
       </c>
       <c r="Q95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>100.11149999999999</v>
       </c>
       <c r="R95" s="3">
-        <f t="shared" si="195"/>
+        <f t="shared" si="199"/>
         <v>111.9973</v>
       </c>
       <c r="AG95" s="3">
@@ -7646,7 +7634,7 @@
         <v>397.1502000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="5" t="s">
         <v>26</v>
@@ -7692,7 +7680,7 @@
         <v>27.101199999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="5" t="s">
         <v>85</v>
@@ -7738,7 +7726,7 @@
         <v>73.4542</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="5" t="s">
         <v>86</v>
@@ -7784,7 +7772,7 @@
         <v>10.522399999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="5" t="s">
         <v>100</v>
@@ -7830,7 +7818,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="5" t="s">
         <v>88</v>
@@ -7876,7 +7864,7 @@
         <v>-10.9886</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="5" t="s">
         <v>87</v>
@@ -7922,7 +7910,7 @@
         <v>-19.546399999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="5" t="s">
         <v>19</v>
@@ -7968,7 +7956,7 @@
         <v>-0.25990000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="5" t="s">
         <v>89</v>
@@ -8014,7 +8002,7 @@
         <v>-284.51159999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="5" t="s">
         <v>90</v>
@@ -8060,7 +8048,7 @@
         <v>-100.607</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="6" t="s">
         <v>91</v>
@@ -8070,27 +8058,27 @@
         <v>30.770053416152571</v>
       </c>
       <c r="L105" s="9">
-        <f t="shared" ref="L105:Q105" si="196">SUM(L95:L104)</f>
+        <f t="shared" ref="L105:Q105" si="200">SUM(L95:L104)</f>
         <v>2.6323465838474274</v>
       </c>
       <c r="M105" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>11.945903850928051</v>
       </c>
       <c r="N105" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>16.297396149071897</v>
       </c>
       <c r="O105" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-71.794809516905843</v>
       </c>
       <c r="P105" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>-75.656290483094111</v>
       </c>
       <c r="Q105" s="9">
-        <f t="shared" si="196"/>
+        <f t="shared" si="200"/>
         <v>113.36945229466981</v>
       </c>
       <c r="R105" s="9">
@@ -8106,7 +8094,7 @@
         <v>92.878500000000514</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="5" t="s">
         <v>92</v>
@@ -8152,7 +8140,7 @@
         <v>-163.52340000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="5" t="s">
         <v>60</v>
@@ -8198,7 +8186,7 @@
         <v>-384.03579999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="5" t="s">
         <v>93</v>
@@ -8244,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="5" t="s">
         <v>19</v>
@@ -8290,7 +8278,7 @@
         <v>16.490300000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="6" t="s">
         <v>94</v>
@@ -8300,27 +8288,27 @@
         <v>-16.380023254682229</v>
       </c>
       <c r="L111" s="9">
-        <f t="shared" ref="L111:Q111" si="197">SUM(L107:L110)</f>
+        <f t="shared" ref="L111:Q111" si="201">SUM(L107:L110)</f>
         <v>-19.187976745317769</v>
       </c>
       <c r="M111" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-17.721902512142336</v>
       </c>
       <c r="N111" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-24.177397487857661</v>
       </c>
       <c r="O111" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-32.823640891931767</v>
       </c>
       <c r="P111" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-34.589059108068227</v>
       </c>
       <c r="Q111" s="9">
-        <f t="shared" si="197"/>
+        <f t="shared" si="201"/>
         <v>-218.71165977235853</v>
       </c>
       <c r="R111" s="9">
@@ -8336,7 +8324,7 @@
         <v>-531.06889999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="5" t="s">
         <v>95</v>
@@ -8382,7 +8370,7 @@
         <v>974.67769999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="5" t="s">
         <v>96</v>
@@ -8428,7 +8416,7 @@
         <v>-46.590400000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="5" t="s">
         <v>97</v>
@@ -8474,7 +8462,7 @@
         <v>-150.32660000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="5" t="s">
         <v>25</v>
@@ -8520,7 +8508,7 @@
         <v>-46.9938</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="5" t="s">
         <v>98</v>
@@ -8566,7 +8554,7 @@
         <v>-6.3811</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="6" t="s">
         <v>99</v>
@@ -8576,27 +8564,27 @@
         <v>54.889334505212297</v>
       </c>
       <c r="L118" s="9">
-        <f t="shared" ref="L118:Q118" si="198">SUM(L113:L117)</f>
+        <f t="shared" ref="L118:Q118" si="202">SUM(L113:L117)</f>
         <v>64.298765494787688</v>
       </c>
       <c r="M118" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-29.282105339405959</v>
       </c>
       <c r="N118" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>-39.948594660594011</v>
       </c>
       <c r="O118" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>130.53635371117306</v>
       </c>
       <c r="P118" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>137.55724628882686</v>
       </c>
       <c r="Q118" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="202"/>
         <v>215.23798107990567</v>
       </c>
       <c r="R118" s="9">
@@ -8612,7 +8600,7 @@
         <v>724.38580000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="6" t="s">
         <v>101</v>
@@ -8622,27 +8610,27 @@
         <v>69.279364666682639</v>
       </c>
       <c r="L119" s="9">
-        <f t="shared" ref="L119:Q119" si="199">L105+L111+L118</f>
+        <f t="shared" ref="L119:Q119" si="203">L105+L111+L118</f>
         <v>47.743135333317348</v>
       </c>
       <c r="M119" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-35.058104000620247</v>
       </c>
       <c r="N119" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>-47.828595999379772</v>
       </c>
       <c r="O119" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>25.917903302335446</v>
       </c>
       <c r="P119" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>27.311896697664523</v>
       </c>
       <c r="Q119" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="203"/>
         <v>109.89577360221695</v>
       </c>
       <c r="R119" s="9">
@@ -8658,11 +8646,11 @@
         <v>286.19540000000052</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="7" t="s">
         <v>102</v>
@@ -8672,27 +8660,27 @@
         <v>27.716897765804877</v>
       </c>
       <c r="L121" s="10">
-        <f t="shared" ref="L121:Q121" si="200">L105+L107</f>
+        <f t="shared" ref="L121:Q121" si="204">L105+L107</f>
         <v>-0.94419776580487857</v>
       </c>
       <c r="M121" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>-0.69201167322881751</v>
       </c>
       <c r="N121" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>-0.94408832677124011</v>
       </c>
       <c r="O121" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>-100.26127564429578</v>
       </c>
       <c r="P121" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>-105.65382435570417</v>
       </c>
       <c r="Q121" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="204"/>
         <v>63.811793519292451</v>
       </c>
       <c r="R121" s="10">
@@ -8733,20 +8721,20 @@
   <dimension ref="B1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F1" s="8">
         <v>44834</v>
       </c>
@@ -8766,7 +8754,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>103</v>
       </c>
@@ -8786,11 +8774,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="13"/>
       <c r="F3">
         <v>28.951699999999999</v>
       </c>
@@ -8812,7 +8800,7 @@
         <v>397.04680000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -8837,7 +8825,7 @@
         <v>27.101199999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -8862,11 +8850,11 @@
         <v>73.4542</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6">
         <f>1.1193-2.3973</f>
         <v>-1.278</v>
       </c>
@@ -8874,7 +8862,7 @@
         <f t="shared" si="0"/>
         <v>21.875399999999999</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6">
         <f>4.5231-0.0261</f>
         <v>4.4970000000000008</v>
       </c>
@@ -8891,11 +8879,11 @@
         <v>10.522399999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7">
         <v>-5.0068000000000001</v>
       </c>
       <c r="G7">
@@ -8916,11 +8904,11 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8">
         <v>-4.7000000000000002E-3</v>
       </c>
       <c r="G8">
@@ -8942,11 +8930,11 @@
         <v>-10.9886</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9">
         <v>-2.7599</v>
       </c>
       <c r="G9">
@@ -8968,11 +8956,11 @@
         <v>-19.546399999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10">
         <f>-0.074+46.2755-0.9</f>
         <v>45.301500000000004</v>
       </c>
@@ -8996,11 +8984,11 @@
         <v>-0.25990000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11">
         <f>145.4873-7.7792+58.5416-5.6587-138.9413-47.7961-61.0386</f>
         <v>-57.185000000000009</v>
       </c>
@@ -9008,7 +8996,7 @@
         <f t="shared" si="0"/>
         <v>-123.09680000000003</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11">
         <f>-61.0927+70.1831+17.8181-346.3096+47.8566-10.3543-69.1762</f>
         <v>-351.07499999999999</v>
       </c>
@@ -9025,11 +9013,11 @@
         <v>-284.51159999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12">
         <v>-20.007999999999999</v>
       </c>
       <c r="G12">
@@ -9050,7 +9038,7 @@
         <v>-100.607</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>91</v>
       </c>
@@ -9079,7 +9067,7 @@
         <v>92.775100000000037</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>92</v>
       </c>
@@ -9106,7 +9094,7 @@
         <v>-163.52340000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>60</v>
       </c>
@@ -9135,7 +9123,7 @@
         <v>-384.03579999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>93</v>
       </c>
@@ -9160,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -9185,7 +9173,7 @@
         <v>16.490300000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>94</v>
       </c>
@@ -9214,7 +9202,7 @@
         <v>-531.06889999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>95</v>
       </c>
@@ -9240,7 +9228,7 @@
         <v>974.67769999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>96</v>
       </c>
@@ -9269,7 +9257,7 @@
         <v>-46.590400000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>97</v>
       </c>
@@ -9294,7 +9282,7 @@
         <v>-150.32660000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -9319,7 +9307,7 @@
         <v>-46.9938</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>98</v>
       </c>
@@ -9344,7 +9332,7 @@
         <v>-6.3811</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>99</v>
       </c>
@@ -9356,11 +9344,11 @@
         <f>SUM(G21:G25)</f>
         <v>-69.23069999999997</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26">
         <f>SUM(H21:H25)</f>
         <v>268.09359999999992</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26">
         <f>SUM(I21:I25)</f>
         <v>456.29220000000009</v>
       </c>
@@ -9373,7 +9361,7 @@
         <v>724.38580000000002</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>101</v>
       </c>
@@ -9385,11 +9373,11 @@
         <f>G13+G19+G26</f>
         <v>-83.333600000000018</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27">
         <f>H13+H19+H26</f>
         <v>53.24109999999996</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27">
         <f>I13+I19+I26</f>
         <v>232.85090000000014</v>
       </c>
@@ -9402,11 +9390,7 @@
         <v>286.0920000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>102</v>
       </c>
@@ -9418,11 +9402,11 @@
         <f>G13+G15</f>
         <v>-2.0830000000000553</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29">
         <f>H13+H15</f>
         <v>-205.90379999999999</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29">
         <f>I13+I15</f>
         <v>135.15550000000005</v>
       </c>
@@ -9435,7 +9419,7 @@
         <v>-70.748299999999972</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>104</v>
       </c>
@@ -9455,7 +9439,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>105</v>
       </c>
@@ -9476,7 +9460,7 @@
         <v>0.52828915094339624</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>106</v>
       </c>
